--- a/RawData/RawPointData.xlsx
+++ b/RawData/RawPointData.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaska\Codes\AboveTheMoho\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2DA12CF-B200-4921-9E66-7FA495DAA847}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3999475B-72C3-45A3-97E3-AEE531B5B187}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13276" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1050,8 +1050,8 @@
   <dimension ref="A1:C100"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A96" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F15" sqref="F15"/>
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>

--- a/RawData/RawPointData.xlsx
+++ b/RawData/RawPointData.xlsx
@@ -1,17 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24701"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Codes\AboveTheMoho\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaska\Codes\AboveTheMoho\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC411292-FB5F-4483-A11D-034835017D16}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D498F6-011A-4D85-BBE2-91D01E405B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="7980" yWindow="5400" windowWidth="20730" windowHeight="10200" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
-    <workbookView xWindow="-10305" yWindow="9690" windowWidth="20730" windowHeight="10200" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="2" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="LAYER_LIBARY" sheetId="2" r:id="rId1"/>
@@ -862,24 +861,21 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{81F5604A-11E0-410C-B1F1-F9D56F7B4905}">
   <dimension ref="A1:F14"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-    <sheetView tabSelected="1" workbookViewId="1">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="2"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="11.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="15.73046875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" style="2"/>
+    <col min="6" max="6" width="13.265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -899,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -910,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -921,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -932,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -943,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -954,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -965,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -976,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -987,7 +983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -998,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1009,7 +1005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1020,7 +1016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1031,7 +1027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1053,20 +1049,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16C6F1-A4CA-4FD6-A0ED-DEF910A4128D}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-    </sheetView>
-    <sheetView workbookViewId="1"/>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1077,7 +1069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>520616.10629999998</v>
       </c>
@@ -1088,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>520638.13630000001</v>
       </c>
@@ -1099,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>520660.23629999999</v>
       </c>
@@ -1110,7 +1102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>520679.1863</v>
       </c>
@@ -1121,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>520683.35629999998</v>
       </c>
@@ -1132,7 +1124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>520615.89630000002</v>
       </c>
@@ -1143,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>520640.76630000002</v>
       </c>
@@ -1154,7 +1146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>520656.47629999998</v>
       </c>
@@ -1165,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>520665.5563</v>
       </c>
@@ -1176,7 +1168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>520669.17629999999</v>
       </c>
@@ -1187,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>520616.94630000001</v>
       </c>
@@ -1198,7 +1190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>520638.66629999998</v>
       </c>
@@ -1209,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>520614.4363</v>
       </c>
@@ -1220,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>520632.53629999998</v>
       </c>
@@ -1231,7 +1223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>520653.38630000001</v>
       </c>
@@ -1242,7 +1234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>520675.0563</v>
       </c>
@@ -1253,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>520613.89630000002</v>
       </c>
@@ -1264,7 +1256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>520652.17629999999</v>
       </c>
@@ -1275,7 +1267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>520667.92629999999</v>
       </c>
@@ -1286,7 +1278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>520608.54629999999</v>
       </c>
@@ -1297,7 +1289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>520629.70630000002</v>
       </c>
@@ -1308,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>520650.50630000001</v>
       </c>
@@ -1319,7 +1311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>520613.84629999998</v>
       </c>
@@ -1330,7 +1322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>520635.46629999997</v>
       </c>
@@ -1341,7 +1333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>520652.83630000002</v>
       </c>
@@ -1352,7 +1344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>520667.6863</v>
       </c>
@@ -1363,7 +1355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>520614.15629999997</v>
       </c>
@@ -1374,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>520638.94630000001</v>
       </c>
@@ -1385,7 +1377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>520661.8063</v>
       </c>
@@ -1396,7 +1388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>520455.67629999999</v>
       </c>
@@ -1407,7 +1399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>520480.28629999998</v>
       </c>
@@ -1418,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>520505.14630000002</v>
       </c>
@@ -1429,7 +1421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -1440,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>520534.61629999999</v>
       </c>
@@ -1451,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>520561.45630000002</v>
       </c>
@@ -1462,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>520451.13630000001</v>
       </c>
@@ -1473,7 +1465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>520463.92629999999</v>
       </c>
@@ -1484,7 +1476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>520484.01630000002</v>
       </c>
@@ -1495,7 +1487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>520506.02630000003</v>
       </c>
@@ -1506,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>520531.22629999998</v>
       </c>
@@ -1517,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>520545.7463</v>
       </c>
@@ -1528,7 +1520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>520556.42629999999</v>
       </c>
@@ -1539,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>520469.95630000002</v>
       </c>
@@ -1550,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>520489.89630000002</v>
       </c>
@@ -1561,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>520508.40629999997</v>
       </c>
@@ -1572,7 +1564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>520525.90629999997</v>
       </c>
@@ -1583,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>520463.72629999998</v>
       </c>
@@ -1594,7 +1586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>520475.4363</v>
       </c>
@@ -1605,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>520491.90629999997</v>
       </c>
@@ -1616,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>520513.46629999997</v>
       </c>
@@ -1627,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>520446.58630000002</v>
       </c>
@@ -1638,7 +1630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>520474.86629999999</v>
       </c>
@@ -1649,7 +1641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>520497.47629999998</v>
       </c>
@@ -1660,7 +1652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>520488.11629999999</v>
       </c>
@@ -1671,7 +1663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>520446.9302</v>
       </c>
@@ -1682,7 +1674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>520454.41629999998</v>
       </c>
@@ -1693,7 +1685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>520464.78629999998</v>
       </c>
@@ -1704,7 +1696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>520441.50630000001</v>
       </c>
@@ -1715,7 +1707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>520462.88630000001</v>
       </c>
@@ -1726,7 +1718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>520543.15629999997</v>
       </c>
@@ -1737,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>520561.69630000001</v>
       </c>
@@ -1748,7 +1740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>520565.70630000002</v>
       </c>
@@ -1759,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>520587.69630000001</v>
       </c>
@@ -1770,7 +1762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>520578.83630000002</v>
       </c>
@@ -1781,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>520569.01630000002</v>
       </c>
@@ -1792,7 +1784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>520561.34629999998</v>
       </c>
@@ -1803,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>520555.23629999999</v>
       </c>
@@ -1814,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>520596.36629999999</v>
       </c>
@@ -1825,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>520590.64630000002</v>
       </c>
@@ -1836,7 +1828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>520583.10629999998</v>
       </c>
@@ -1847,7 +1839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>520573.65629999997</v>
       </c>
@@ -1858,7 +1850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>520581.54629999999</v>
       </c>
@@ -1869,7 +1861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>520514.91629999998</v>
       </c>
@@ -1880,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>520533.22629999998</v>
       </c>
@@ -1891,7 +1883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>520549.00630000001</v>
       </c>
@@ -1902,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>520569.63630000001</v>
       </c>
@@ -1913,7 +1905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>520540.59629999998</v>
       </c>
@@ -1924,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>520594.0563</v>
       </c>
@@ -1935,7 +1927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>520434.21629999997</v>
       </c>
@@ -1946,7 +1938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>520443.98629999999</v>
       </c>
@@ -1957,7 +1949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>520464.95630000002</v>
       </c>
@@ -1968,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>520486.0563</v>
       </c>
@@ -1979,7 +1971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>520491.70630000002</v>
       </c>
@@ -1990,7 +1982,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>520527.20630000002</v>
       </c>
@@ -2001,7 +1993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>520507.25630000001</v>
       </c>
@@ -2012,7 +2004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>520446.14630000002</v>
       </c>
@@ -2023,7 +2015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>520458.86629999999</v>
       </c>
@@ -2034,7 +2026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>520467.38630000001</v>
       </c>
@@ -2045,7 +2037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>520488.42629999999</v>
       </c>
@@ -2056,7 +2048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -2067,7 +2059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>520516.7463</v>
       </c>
@@ -2078,7 +2070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>520525.65629999997</v>
       </c>
@@ -2089,7 +2081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>520547.88630000001</v>
       </c>
@@ -2100,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>520569.98629999999</v>
       </c>
@@ -2111,7 +2103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>520591.8763</v>
       </c>
@@ -2122,7 +2114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>520608.9963</v>
       </c>
@@ -2133,7 +2125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>520614.45630000002</v>
       </c>
@@ -2144,7 +2136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>520636.70630000002</v>
       </c>
@@ -2155,7 +2147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>520650.46629999997</v>
       </c>
@@ -2180,30 +2172,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M839"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="E1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="N34" sqref="N34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
     </sheetView>
-    <sheetView workbookViewId="1"/>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="13.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.46484375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.46484375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -2244,7 +2234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f>D2</f>
         <v>4062024.1494999998</v>
@@ -2290,7 +2280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A50" si="0">D3</f>
         <v>4062024.1494999998</v>
@@ -2336,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4062024.1494999998</v>
@@ -2382,7 +2372,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2428,7 +2418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2474,7 +2464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2520,7 +2510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2566,7 +2556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2612,7 +2602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2658,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2704,7 +2694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2750,7 +2740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2796,7 +2786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2842,7 +2832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2888,7 +2878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2934,7 +2924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -2980,7 +2970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3026,7 +3016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3072,7 +3062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3118,7 +3108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3164,7 +3154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3210,7 +3200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3256,7 +3246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3302,7 +3292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3348,7 +3338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3394,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3440,7 +3430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3486,7 +3476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3532,7 +3522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3578,7 +3568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3624,7 +3614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3670,7 +3660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3716,7 +3706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3762,7 +3752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3808,7 +3798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3854,7 +3844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3900,7 +3890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3946,7 +3936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -3989,7 +3979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4032,7 +4022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4075,7 +4065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4118,7 +4108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4161,7 +4151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4204,7 +4194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4247,7 +4237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4290,7 +4280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4333,7 +4323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4376,7 +4366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4419,7 +4409,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>4061977.4594999999</v>
@@ -4462,7 +4452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <f t="shared" ref="A51:A99" si="14">D51</f>
         <v>4061977.4594999999</v>
@@ -4505,7 +4495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4548,7 +4538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4591,7 +4581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4634,7 +4624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4677,7 +4667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4720,7 +4710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4763,7 +4753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4806,7 +4796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4849,7 +4839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4892,7 +4882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4935,7 +4925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4978,7 +4968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5021,7 +5011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5064,7 +5054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5107,7 +5097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5150,7 +5140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5193,7 +5183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5236,7 +5226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5279,7 +5269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5322,7 +5312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5365,7 +5355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5408,7 +5398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5451,7 +5441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5494,7 +5484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5537,7 +5527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5580,7 +5570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5623,7 +5613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5666,7 +5656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5709,7 +5699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5752,7 +5742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5795,7 +5785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5838,7 +5828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5881,7 +5871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5924,7 +5914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5967,7 +5957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6010,7 +6000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6053,7 +6043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6096,7 +6086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6139,7 +6129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6182,7 +6172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6225,7 +6215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6268,7 +6258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6311,7 +6301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6354,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6397,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6440,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6483,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6526,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <f t="shared" si="14"/>
         <v>4062008.0395</v>
@@ -6569,7 +6559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <f t="shared" ref="A100:A150" si="19">D100</f>
         <v>4062008.0395</v>
@@ -6612,7 +6602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <f t="shared" si="19"/>
         <v>4062008.0395</v>
@@ -6655,7 +6645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6698,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6741,7 +6731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6784,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6827,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6870,7 +6860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6913,7 +6903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6956,7 +6946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6999,7 +6989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -7042,7 +7032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7085,7 +7075,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7128,7 +7118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7171,7 +7161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7214,7 +7204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7257,7 +7247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7300,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7343,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7386,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7429,7 +7419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7472,7 +7462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7515,7 +7505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7558,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7601,7 +7591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7644,7 +7634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7687,7 +7677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7730,7 +7720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7773,7 +7763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7816,7 +7806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7859,7 +7849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7902,7 +7892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7945,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7988,7 +7978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8031,7 +8021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8074,7 +8064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8117,7 +8107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8160,7 +8150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8203,7 +8193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8246,7 +8236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8289,7 +8279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8332,7 +8322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8375,7 +8365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8418,7 +8408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8461,7 +8451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8504,7 +8494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8547,7 +8537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8590,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8633,7 +8623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8676,7 +8666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8719,7 +8709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8762,7 +8752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <f t="shared" ref="A151:A205" si="24">D151</f>
         <v>4061974.2595000002</v>
@@ -8805,7 +8795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8848,7 +8838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8891,7 +8881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8934,7 +8924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -8977,7 +8967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9020,7 +9010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9063,7 +9053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9106,7 +9096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9149,7 +9139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9192,7 +9182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9235,7 +9225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9278,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9321,7 +9311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9364,7 +9354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9407,7 +9397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9450,7 +9440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9493,7 +9483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9536,7 +9526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9579,7 +9569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9622,7 +9612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9665,7 +9655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9708,7 +9698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9751,7 +9741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9794,7 +9784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9837,7 +9827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9880,7 +9870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9923,7 +9913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9966,7 +9956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10009,7 +9999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10052,7 +10042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10095,7 +10085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10138,7 +10128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10181,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10224,7 +10214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10267,7 +10257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10310,7 +10300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10353,7 +10343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10396,7 +10386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10439,7 +10429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10482,7 +10472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10525,7 +10515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10568,7 +10558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10611,7 +10601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10654,7 +10644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10697,7 +10687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10740,7 +10730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10783,7 +10773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10826,7 +10816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10869,7 +10859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10912,7 +10902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10955,7 +10945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10998,7 +10988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11041,7 +11031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11084,7 +11074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11127,7 +11117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <f t="shared" ref="A206:A258" si="29">D206</f>
         <v>4061936.1795000001</v>
@@ -11170,7 +11160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <f t="shared" si="29"/>
         <v>4061936.1795000001</v>
@@ -11213,7 +11203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11256,7 +11246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11299,7 +11289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11342,7 +11332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11385,7 +11375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11428,7 +11418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11471,7 +11461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11514,7 +11504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11557,7 +11547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11600,7 +11590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11643,7 +11633,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11686,7 +11676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11729,7 +11719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11772,7 +11762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11815,7 +11805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11858,7 +11848,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11901,7 +11891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11944,7 +11934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11987,7 +11977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12030,7 +12020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12073,7 +12063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12116,7 +12106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12159,7 +12149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12202,7 +12192,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12245,7 +12235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12288,7 +12278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12331,7 +12321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12374,7 +12364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12417,7 +12407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12460,7 +12450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12503,7 +12493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12546,7 +12536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12589,7 +12579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12632,7 +12622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12675,7 +12665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12718,7 +12708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12761,7 +12751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12804,7 +12794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12847,7 +12837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12890,7 +12880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12933,7 +12923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12976,7 +12966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13019,7 +13009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13062,7 +13052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13105,7 +13095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13148,7 +13138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13191,7 +13181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13234,7 +13224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13277,7 +13267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13320,7 +13310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13363,7 +13353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13406,7 +13396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <f t="shared" ref="A259:A310" si="37">D259</f>
         <v>4062002.6294999998</v>
@@ -13449,7 +13439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13492,7 +13482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13535,7 +13525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13578,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13621,7 +13611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13664,7 +13654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13707,7 +13697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13750,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13793,7 +13783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13836,7 +13826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13879,7 +13869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13922,7 +13912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -13965,7 +13955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14008,7 +13998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14051,7 +14041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14094,7 +14084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14137,7 +14127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14180,7 +14170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14223,7 +14213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14266,7 +14256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14309,7 +14299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14352,7 +14342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14395,7 +14385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14438,7 +14428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14481,7 +14471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14524,7 +14514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14567,7 +14557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14610,7 +14600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14653,7 +14643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14696,7 +14686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14739,7 +14729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14782,7 +14772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14825,7 +14815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14868,7 +14858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14911,7 +14901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14954,7 +14944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14997,7 +14987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15040,7 +15030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15083,7 +15073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15126,7 +15116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15169,7 +15159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15212,7 +15202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15255,7 +15245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15298,7 +15288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15341,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15384,7 +15374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15427,7 +15417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15470,7 +15460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15513,7 +15503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15556,7 +15546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15599,7 +15589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15642,7 +15632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <f t="shared" ref="A311:A363" si="42">D311</f>
         <v>4061952.5595</v>
@@ -15685,7 +15675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15728,7 +15718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15771,7 +15761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15814,7 +15804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15857,7 +15847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15900,7 +15890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15943,7 +15933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15986,7 +15976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16029,7 +16019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16072,7 +16062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16115,7 +16105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16158,7 +16148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16201,7 +16191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16244,7 +16234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16287,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16330,7 +16320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16373,7 +16363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16416,7 +16406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16459,7 +16449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16502,7 +16492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16545,7 +16535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16588,7 +16578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16631,7 +16621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16674,7 +16664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16717,7 +16707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16760,7 +16750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16803,7 +16793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16846,7 +16836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16889,7 +16879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16932,7 +16922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16975,7 +16965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -17018,7 +17008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17061,7 +17051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17104,7 +17094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17147,7 +17137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17190,7 +17180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17233,7 +17223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17276,7 +17266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17319,7 +17309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17362,7 +17352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17405,7 +17395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17448,7 +17438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17491,7 +17481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17534,7 +17524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17577,7 +17567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17620,7 +17610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17663,7 +17653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17706,7 +17696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17749,7 +17739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17792,7 +17782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17835,7 +17825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17878,7 +17868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17921,7 +17911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <f t="shared" ref="A364:A418" si="50">D364</f>
         <v>4061887.5295000002</v>
@@ -17964,7 +17954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18007,7 +17997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18050,7 +18040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18093,7 +18083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18136,7 +18126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18179,7 +18169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18222,7 +18212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18265,7 +18255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18308,7 +18298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18351,7 +18341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18394,7 +18384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18437,7 +18427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18480,7 +18470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18523,7 +18513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18566,7 +18556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18609,7 +18599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18652,7 +18642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18695,7 +18685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18738,7 +18728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18781,7 +18771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18824,7 +18814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18867,7 +18857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18910,7 +18900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18953,7 +18943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18996,7 +18986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19039,7 +19029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19082,7 +19072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19125,7 +19115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19168,7 +19158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19211,7 +19201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19254,7 +19244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19297,7 +19287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19340,7 +19330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19383,7 +19373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19426,7 +19416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19469,7 +19459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19512,7 +19502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19555,7 +19545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19598,7 +19588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19641,7 +19631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19684,7 +19674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19727,7 +19717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19770,7 +19760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19813,7 +19803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19856,7 +19846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19899,7 +19889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19942,7 +19932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19985,7 +19975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20028,7 +20018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20071,7 +20061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20114,7 +20104,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20157,7 +20147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20200,7 +20190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20243,7 +20233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20286,7 +20276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <f t="shared" ref="A419:A481" si="58">D419</f>
         <v>4061900.3895</v>
@@ -20329,7 +20319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20372,7 +20362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20415,7 +20405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20458,7 +20448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20501,7 +20491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20544,7 +20534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20587,7 +20577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20630,7 +20620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20673,7 +20663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20716,7 +20706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20759,7 +20749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20802,7 +20792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20845,7 +20835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20888,7 +20878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20931,7 +20921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20953,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20990,7 +20980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21027,7 +21017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21064,7 +21054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21101,7 +21091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21138,7 +21128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21175,7 +21165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21212,7 +21202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21234,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21271,7 +21261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21308,7 +21298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21345,7 +21335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21382,7 +21372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21419,7 +21409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21456,7 +21446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21493,7 +21483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21515,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21552,7 +21542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21589,7 +21579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21611,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21648,7 +21638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21685,7 +21675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21722,7 +21712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21759,7 +21749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21796,7 +21786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21833,7 +21823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21870,7 +21860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21907,7 +21897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21929,7 +21919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21966,7 +21956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22003,7 +21993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22040,7 +22030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22077,7 +22067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22099,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22136,7 +22126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22173,7 +22163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22210,7 +22200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22247,7 +22237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22284,7 +22274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22306,7 +22296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22343,7 +22333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22380,7 +22370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22417,7 +22407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22439,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22476,7 +22466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22513,7 +22503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22550,7 +22540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <f t="shared" ref="A482:A545" si="63">D482</f>
         <v>0</v>
@@ -22587,7 +22577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22624,7 +22614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22661,7 +22651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22683,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22720,7 +22710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22757,7 +22747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22794,7 +22784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22831,7 +22821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22853,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22890,7 +22880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22927,7 +22917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22964,7 +22954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23001,7 +22991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23038,7 +23028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23060,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23097,7 +23087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23134,7 +23124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23171,7 +23161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23208,7 +23198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23245,7 +23235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23282,7 +23272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23319,7 +23309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23356,7 +23346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23378,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23415,7 +23405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23452,7 +23442,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23474,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23511,7 +23501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23548,7 +23538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23585,7 +23575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23622,7 +23612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23659,7 +23649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23696,7 +23686,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23718,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23755,7 +23745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23792,7 +23782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23829,7 +23819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23866,7 +23856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23903,7 +23893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23925,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23962,7 +23952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23999,7 +23989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24036,7 +24026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24073,7 +24063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24110,7 +24100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24147,7 +24137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24169,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24206,7 +24196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24243,7 +24233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24280,7 +24270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24302,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24339,7 +24329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24376,7 +24366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24398,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24435,7 +24425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24472,7 +24462,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24509,7 +24499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24531,7 +24521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24568,7 +24558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24605,7 +24595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24642,7 +24632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24679,7 +24669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24701,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24738,7 +24728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <f t="shared" ref="A546:A609" si="68">D546</f>
         <v>0</v>
@@ -24775,7 +24765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24812,7 +24802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24849,7 +24839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24871,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24908,7 +24898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24945,7 +24935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24982,7 +24972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25019,7 +25009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25056,7 +25046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25093,7 +25083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25115,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25152,7 +25142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25189,7 +25179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25226,7 +25216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25263,7 +25253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25300,7 +25290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25322,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25359,7 +25349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25396,7 +25386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25433,7 +25423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25470,7 +25460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25507,7 +25497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25544,7 +25534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25581,7 +25571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25618,7 +25608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25640,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25677,7 +25667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25714,7 +25704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A574" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25751,7 +25741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A575" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25788,7 +25778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A576" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25825,7 +25815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A577" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25862,7 +25852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A578" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25899,7 +25889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A579" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25936,7 +25926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A580" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25958,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A581" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25995,7 +25985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A582" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26032,7 +26022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A583" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26069,7 +26059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A584" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26106,7 +26096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A585" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26128,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A586" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26165,7 +26155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A587" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26202,7 +26192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A588" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26239,7 +26229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A589" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26276,7 +26266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A590" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26313,7 +26303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A591" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26350,7 +26340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A592" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26387,7 +26377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A593" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26409,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A594" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26446,7 +26436,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A595" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26483,7 +26473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A596" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26520,7 +26510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A597" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26542,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A598" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26579,7 +26569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A599" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26616,7 +26606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A600" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26653,7 +26643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A601" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26690,7 +26680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A602" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26727,7 +26717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A603" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26764,7 +26754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A604" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26801,7 +26791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A605" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26838,7 +26828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A606" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26875,7 +26865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A607" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26912,7 +26902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A608" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26934,7 +26924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A609" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26971,7 +26961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A610" s="2">
         <f t="shared" ref="A610:A673" si="73">D610</f>
         <v>0</v>
@@ -27008,7 +26998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A611" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27045,7 +27035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A612" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27082,7 +27072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A613" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27119,7 +27109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A614" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27156,7 +27146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A615" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27193,7 +27183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A616" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27230,7 +27220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A617" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27267,7 +27257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A618" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27304,7 +27294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A619" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27326,7 +27316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A620" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27363,7 +27353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A621" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27400,7 +27390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A622" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27437,7 +27427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A623" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27474,7 +27464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A624" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27511,7 +27501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A625" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27548,7 +27538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A626" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27585,7 +27575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A627" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27622,7 +27612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A628" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27659,7 +27649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A629" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27681,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A630" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27718,7 +27708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A631" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27755,7 +27745,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A632" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27777,7 +27767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A633" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27814,7 +27804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A634" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27851,7 +27841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A635" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27888,7 +27878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A636" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27925,7 +27915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A637" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27962,7 +27952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A638" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27999,7 +27989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A639" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28036,7 +28026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A640" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28058,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A641" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28095,7 +28085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A642" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28132,7 +28122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A643" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28169,7 +28159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A644" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28206,7 +28196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A645" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28243,7 +28233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A646" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28280,7 +28270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A647" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28317,7 +28307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A648" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28339,7 +28329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A649" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28376,7 +28366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A650" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28413,7 +28403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A651" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28450,7 +28440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A652" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28487,7 +28477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A653" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28524,7 +28514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A654" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28561,7 +28551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A655" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28598,7 +28588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A656" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28635,7 +28625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A657" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28657,7 +28647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A658" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28694,7 +28684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A659" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28731,7 +28721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A660" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28768,7 +28758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A661" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28805,7 +28795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A662" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28842,7 +28832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A663" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28879,7 +28869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A664" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28916,7 +28906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A665" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28953,7 +28943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A666" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28990,7 +28980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A667" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29012,7 +29002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A668" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29049,7 +29039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A669" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29086,7 +29076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A670" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29123,7 +29113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A671" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29160,7 +29150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A672" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29197,7 +29187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A673" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29234,7 +29224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A674" s="2">
         <f t="shared" ref="A674:A737" si="78">D674</f>
         <v>0</v>
@@ -29271,7 +29261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A675" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29308,7 +29298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A676" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29345,7 +29335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A677" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29367,7 +29357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A678" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29404,7 +29394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A679" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29441,7 +29431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A680" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29478,7 +29468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A681" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29515,7 +29505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A682" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29552,7 +29542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A683" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29589,7 +29579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A684" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29626,7 +29616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A685" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29663,7 +29653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A686" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29685,7 +29675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A687" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29722,7 +29712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A688" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29759,7 +29749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A689" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29796,7 +29786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A690" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29833,7 +29823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A691" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29870,7 +29860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A692" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29907,7 +29897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A693" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29944,7 +29934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A694" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29981,7 +29971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A695" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30018,7 +30008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A696" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30040,7 +30030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A697" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30077,7 +30067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A698" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30114,7 +30104,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A699" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30151,7 +30141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A700" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30188,7 +30178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A701" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30225,7 +30215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A702" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30262,7 +30252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A703" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30284,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A704" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30321,7 +30311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A705" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30358,7 +30348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A706" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30395,7 +30385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A707" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30432,7 +30422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A708" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30454,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A709" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30491,7 +30481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A710" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30528,7 +30518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A711" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30565,7 +30555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A712" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30602,7 +30592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A713" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30624,7 +30614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A714" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30661,7 +30651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A715" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30698,7 +30688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A716" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30735,7 +30725,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A717" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30772,7 +30762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A718" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30794,7 +30784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A719" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30831,7 +30821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A720" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30868,7 +30858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A721" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30905,7 +30895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A722" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30942,7 +30932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A723" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30964,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A724" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31001,7 +30991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A725" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31038,7 +31028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A726" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31075,7 +31065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A727" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31112,7 +31102,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A728" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31134,7 +31124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A729" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31171,7 +31161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A730" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31208,7 +31198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A731" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31245,7 +31235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A732" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31282,7 +31272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A733" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31319,7 +31309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A734" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31356,7 +31346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A735" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31378,7 +31368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A736" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31415,7 +31405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A737" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31452,7 +31442,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A738" s="2">
         <f t="shared" ref="A738:A801" si="83">D738</f>
         <v>0</v>
@@ -31489,7 +31479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A739" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31526,7 +31516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A740" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31563,7 +31553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A741" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31585,7 +31575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A742" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31622,7 +31612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A743" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31659,7 +31649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A744" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31696,7 +31686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A745" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31718,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A746" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31755,7 +31745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A747" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31792,7 +31782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A748" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31829,7 +31819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A749" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31866,7 +31856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A750" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31903,7 +31893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A751" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31940,7 +31930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A752" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31977,7 +31967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A753" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31999,7 +31989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A754" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32036,7 +32026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A755" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32073,7 +32063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A756" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32110,7 +32100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A757" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32147,7 +32137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A758" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32184,7 +32174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A759" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32206,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A760" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32243,7 +32233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A761" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32280,7 +32270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A762" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32317,7 +32307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A763" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32354,7 +32344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A764" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32376,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A765" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32413,7 +32403,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A766" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32450,7 +32440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A767" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32487,7 +32477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A768" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32524,7 +32514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A769" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32546,7 +32536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A770" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32583,7 +32573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A771" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32620,7 +32610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A772" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32657,7 +32647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A773" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32694,7 +32684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A774" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32731,7 +32721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A775" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32768,7 +32758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A776" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32805,7 +32795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A777" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32842,7 +32832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A778" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32864,7 +32854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A779" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32901,7 +32891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A780" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32938,7 +32928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A781" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32975,7 +32965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A782" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33012,7 +33002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A783" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33049,7 +33039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A784" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33086,7 +33076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A785" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33123,7 +33113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A786" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33145,7 +33135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A787" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33182,7 +33172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A788" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33219,7 +33209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A789" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33256,7 +33246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A790" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33293,7 +33283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A791" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33315,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A792" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33352,7 +33342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A793" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33389,7 +33379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A794" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33426,7 +33416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A795" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33463,7 +33453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A796" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33500,7 +33490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A797" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33537,7 +33527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A798" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33559,7 +33549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A799" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33596,7 +33586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A800" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33633,7 +33623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A801" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33670,7 +33660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A802" s="2">
         <f t="shared" ref="A802:A839" si="91">D802</f>
         <v>0</v>
@@ -33707,7 +33697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A803" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33744,7 +33734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A804" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33781,7 +33771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A805" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33818,7 +33808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A806" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33855,7 +33845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A807" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33892,7 +33882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A808" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33929,7 +33919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A809" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33951,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A810" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33988,7 +33978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A811" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34025,7 +34015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A812" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34062,7 +34052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A813" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34099,7 +34089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A814" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34136,7 +34126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A815" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34173,7 +34163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A816" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34210,7 +34200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A817" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34247,7 +34237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A818" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34269,7 +34259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A819" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34306,7 +34296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A820" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34343,7 +34333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A821" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34380,7 +34370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A822" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34402,7 +34392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A823" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34439,7 +34429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A824" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34476,7 +34466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A825" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34513,7 +34503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A826" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34550,7 +34540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A827" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34587,7 +34577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A828" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34624,7 +34614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A829" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34661,7 +34651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A830" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34683,7 +34673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A831" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34720,7 +34710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A832" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34757,7 +34747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A833" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34794,7 +34784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A834" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34831,7 +34821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A835" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34868,7 +34858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A836" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34905,7 +34895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A837" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34915,7 +34905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A838" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34952,7 +34942,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A839" s="2">
         <f t="shared" si="91"/>
         <v>0</v>

--- a/RawData/RawPointData.xlsx
+++ b/RawData/RawPointData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaska\Codes\AboveTheMoho\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Codes\AboveTheMoho\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E1D498F6-011A-4D85-BBE2-91D01E405B2C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B56480-D062-412B-8F4B-66E95D0E149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="2" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="LAYER_LIBARY" sheetId="2" r:id="rId1"/>
@@ -865,17 +865,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="11.1328125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.1328125" style="1"/>
-    <col min="3" max="3" width="15.73046875" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.1328125" style="2"/>
-    <col min="6" max="6" width="13.265625" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.125" style="1"/>
+    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.125" style="2"/>
+    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -917,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -928,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -972,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -983,7 +983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1051,14 +1051,14 @@
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="16.59765625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1069,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A2" s="4">
         <v>520616.10629999998</v>
       </c>
@@ -1080,7 +1080,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A3" s="4">
         <v>520638.13630000001</v>
       </c>
@@ -1091,7 +1091,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A4" s="4">
         <v>520660.23629999999</v>
       </c>
@@ -1102,7 +1102,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A5" s="4">
         <v>520679.1863</v>
       </c>
@@ -1113,7 +1113,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A6" s="4">
         <v>520683.35629999998</v>
       </c>
@@ -1124,7 +1124,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A7" s="4">
         <v>520615.89630000002</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A8" s="4">
         <v>520640.76630000002</v>
       </c>
@@ -1146,7 +1146,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A9" s="4">
         <v>520656.47629999998</v>
       </c>
@@ -1157,7 +1157,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A10" s="4">
         <v>520665.5563</v>
       </c>
@@ -1168,7 +1168,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A11" s="4">
         <v>520669.17629999999</v>
       </c>
@@ -1179,7 +1179,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A12" s="4">
         <v>520616.94630000001</v>
       </c>
@@ -1190,7 +1190,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A13" s="4">
         <v>520638.66629999998</v>
       </c>
@@ -1201,7 +1201,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A14" s="4">
         <v>520614.4363</v>
       </c>
@@ -1212,7 +1212,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A15" s="4">
         <v>520632.53629999998</v>
       </c>
@@ -1223,7 +1223,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A16" s="4">
         <v>520653.38630000001</v>
       </c>
@@ -1234,7 +1234,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A17" s="4">
         <v>520675.0563</v>
       </c>
@@ -1245,7 +1245,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A18" s="4">
         <v>520613.89630000002</v>
       </c>
@@ -1256,7 +1256,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A19" s="4">
         <v>520652.17629999999</v>
       </c>
@@ -1267,7 +1267,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A20" s="4">
         <v>520667.92629999999</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A21" s="4">
         <v>520608.54629999999</v>
       </c>
@@ -1289,7 +1289,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A22" s="4">
         <v>520629.70630000002</v>
       </c>
@@ -1300,7 +1300,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A23" s="4">
         <v>520650.50630000001</v>
       </c>
@@ -1311,7 +1311,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A24" s="4">
         <v>520613.84629999998</v>
       </c>
@@ -1322,7 +1322,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A25" s="4">
         <v>520635.46629999997</v>
       </c>
@@ -1333,7 +1333,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A26" s="4">
         <v>520652.83630000002</v>
       </c>
@@ -1344,7 +1344,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A27" s="4">
         <v>520667.6863</v>
       </c>
@@ -1355,7 +1355,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A28" s="4">
         <v>520614.15629999997</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A29" s="4">
         <v>520638.94630000001</v>
       </c>
@@ -1377,7 +1377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A30" s="4">
         <v>520661.8063</v>
       </c>
@@ -1388,7 +1388,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A31" s="4">
         <v>520455.67629999999</v>
       </c>
@@ -1399,7 +1399,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A32" s="4">
         <v>520480.28629999998</v>
       </c>
@@ -1410,7 +1410,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A33" s="4">
         <v>520505.14630000002</v>
       </c>
@@ -1421,7 +1421,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A34" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A35" s="4">
         <v>520534.61629999999</v>
       </c>
@@ -1443,7 +1443,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A36" s="4">
         <v>520561.45630000002</v>
       </c>
@@ -1454,7 +1454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A37" s="4">
         <v>520451.13630000001</v>
       </c>
@@ -1465,7 +1465,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A38" s="4">
         <v>520463.92629999999</v>
       </c>
@@ -1476,7 +1476,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A39" s="4">
         <v>520484.01630000002</v>
       </c>
@@ -1487,7 +1487,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A40" s="4">
         <v>520506.02630000003</v>
       </c>
@@ -1498,7 +1498,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A41" s="4">
         <v>520531.22629999998</v>
       </c>
@@ -1509,7 +1509,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A42" s="4">
         <v>520545.7463</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A43" s="4">
         <v>520556.42629999999</v>
       </c>
@@ -1531,7 +1531,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A44" s="4">
         <v>520469.95630000002</v>
       </c>
@@ -1542,7 +1542,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A45" s="4">
         <v>520489.89630000002</v>
       </c>
@@ -1553,7 +1553,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A46" s="4">
         <v>520508.40629999997</v>
       </c>
@@ -1564,7 +1564,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A47" s="4">
         <v>520525.90629999997</v>
       </c>
@@ -1575,7 +1575,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A48" s="4">
         <v>520463.72629999998</v>
       </c>
@@ -1586,7 +1586,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A49" s="4">
         <v>520475.4363</v>
       </c>
@@ -1597,7 +1597,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A50" s="4">
         <v>520491.90629999997</v>
       </c>
@@ -1608,7 +1608,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A51" s="4">
         <v>520513.46629999997</v>
       </c>
@@ -1619,7 +1619,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A52" s="4">
         <v>520446.58630000002</v>
       </c>
@@ -1630,7 +1630,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A53" s="4">
         <v>520474.86629999999</v>
       </c>
@@ -1641,7 +1641,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A54" s="4">
         <v>520497.47629999998</v>
       </c>
@@ -1652,7 +1652,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A55" s="4">
         <v>520488.11629999999</v>
       </c>
@@ -1663,7 +1663,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A56" s="4">
         <v>520446.9302</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A57" s="4">
         <v>520454.41629999998</v>
       </c>
@@ -1685,7 +1685,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A58" s="4">
         <v>520464.78629999998</v>
       </c>
@@ -1696,7 +1696,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A59" s="4">
         <v>520441.50630000001</v>
       </c>
@@ -1707,7 +1707,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A60" s="4">
         <v>520462.88630000001</v>
       </c>
@@ -1718,7 +1718,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A61" s="4">
         <v>520543.15629999997</v>
       </c>
@@ -1729,7 +1729,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A62" s="4">
         <v>520561.69630000001</v>
       </c>
@@ -1740,7 +1740,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A63" s="4">
         <v>520565.70630000002</v>
       </c>
@@ -1751,7 +1751,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A64" s="4">
         <v>520587.69630000001</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A65" s="4">
         <v>520578.83630000002</v>
       </c>
@@ -1773,7 +1773,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A66" s="4">
         <v>520569.01630000002</v>
       </c>
@@ -1784,7 +1784,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A67" s="4">
         <v>520561.34629999998</v>
       </c>
@@ -1795,7 +1795,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A68" s="4">
         <v>520555.23629999999</v>
       </c>
@@ -1806,7 +1806,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A69" s="4">
         <v>520596.36629999999</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A70" s="4">
         <v>520590.64630000002</v>
       </c>
@@ -1828,7 +1828,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A71" s="4">
         <v>520583.10629999998</v>
       </c>
@@ -1839,7 +1839,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A72" s="4">
         <v>520573.65629999997</v>
       </c>
@@ -1850,7 +1850,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A73" s="4">
         <v>520581.54629999999</v>
       </c>
@@ -1861,7 +1861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A74" s="4">
         <v>520514.91629999998</v>
       </c>
@@ -1872,7 +1872,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A75" s="4">
         <v>520533.22629999998</v>
       </c>
@@ -1883,7 +1883,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A76" s="4">
         <v>520549.00630000001</v>
       </c>
@@ -1894,7 +1894,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A77" s="4">
         <v>520569.63630000001</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A78" s="4">
         <v>520540.59629999998</v>
       </c>
@@ -1916,7 +1916,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A79" s="4">
         <v>520594.0563</v>
       </c>
@@ -1927,7 +1927,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A80" s="4">
         <v>520434.21629999997</v>
       </c>
@@ -1938,7 +1938,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A81" s="4">
         <v>520443.98629999999</v>
       </c>
@@ -1949,7 +1949,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A82" s="4">
         <v>520464.95630000002</v>
       </c>
@@ -1960,7 +1960,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A83" s="4">
         <v>520486.0563</v>
       </c>
@@ -1971,7 +1971,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A84" s="4">
         <v>520491.70630000002</v>
       </c>
@@ -1982,7 +1982,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A85" s="4">
         <v>520527.20630000002</v>
       </c>
@@ -1993,7 +1993,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A86" s="4">
         <v>520507.25630000001</v>
       </c>
@@ -2004,7 +2004,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A87" s="4">
         <v>520446.14630000002</v>
       </c>
@@ -2015,7 +2015,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A88" s="4">
         <v>520458.86629999999</v>
       </c>
@@ -2026,7 +2026,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A89" s="4">
         <v>520467.38630000001</v>
       </c>
@@ -2037,7 +2037,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A90" s="4">
         <v>520488.42629999999</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A91" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -2059,7 +2059,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A92" s="4">
         <v>520516.7463</v>
       </c>
@@ -2070,7 +2070,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A93" s="4">
         <v>520525.65629999997</v>
       </c>
@@ -2081,7 +2081,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A94" s="4">
         <v>520547.88630000001</v>
       </c>
@@ -2092,7 +2092,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A95" s="4">
         <v>520569.98629999999</v>
       </c>
@@ -2103,7 +2103,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A96" s="4">
         <v>520591.8763</v>
       </c>
@@ -2114,7 +2114,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A97" s="4">
         <v>520608.9963</v>
       </c>
@@ -2125,7 +2125,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A98" s="4">
         <v>520614.45630000002</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A99" s="4">
         <v>520636.70630000002</v>
       </c>
@@ -2147,7 +2147,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
       <c r="A100" s="4">
         <v>520650.46629999997</v>
       </c>
@@ -2173,27 +2173,27 @@
   <dimension ref="A1:M839"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+      <selection activeCell="D13" sqref="D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
+  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="13.59765625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.59765625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.46484375" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.46484375" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.73046875" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.265625" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.73046875" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.46484375" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.73046875" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.46484375" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.1328125" style="2"/>
+    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.5" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.25" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.75" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.5" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2234,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A2" s="2">
         <f>D2</f>
         <v>4062024.1494999998</v>
@@ -2280,7 +2280,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A50" si="0">D3</f>
         <v>4062024.1494999998</v>
@@ -2326,7 +2326,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4062024.1494999998</v>
@@ -2372,20 +2372,20 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
-        <v>4062024.6595000001</v>
+        <v>4062024.1494999998</v>
       </c>
       <c r="B5" s="2">
         <f t="shared" si="1"/>
-        <v>520638.13630000001</v>
+        <v>520616.10629999998</v>
       </c>
       <c r="C5" s="2">
-        <v>520638.13630000001</v>
+        <v>520616.10629999998</v>
       </c>
       <c r="D5" s="2">
-        <v>4062024.6595000001</v>
+        <v>4062024.1494999998</v>
       </c>
       <c r="E5" s="3">
         <v>86.66</v>
@@ -2418,7 +2418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2464,7 +2464,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2510,7 +2510,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2556,7 +2556,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2602,7 +2602,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2648,7 +2648,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2694,7 +2694,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2740,7 +2740,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2786,7 +2786,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2832,7 +2832,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2878,7 +2878,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2924,7 +2924,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -2970,7 +2970,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3016,7 +3016,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3062,7 +3062,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3108,7 +3108,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3154,7 +3154,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3200,7 +3200,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3246,7 +3246,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3292,7 +3292,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3338,7 +3338,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3384,7 +3384,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3430,7 +3430,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3476,7 +3476,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3522,7 +3522,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3568,7 +3568,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3614,7 +3614,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3660,7 +3660,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3706,7 +3706,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3752,7 +3752,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3798,7 +3798,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3844,7 +3844,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3890,7 +3890,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3936,7 +3936,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -3979,7 +3979,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4022,7 +4022,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4065,7 +4065,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4108,7 +4108,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4151,7 +4151,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4194,7 +4194,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4237,7 +4237,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4280,7 +4280,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4323,7 +4323,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4366,7 +4366,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4409,7 +4409,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>4061977.4594999999</v>
@@ -4452,7 +4452,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A51" s="2">
         <f t="shared" ref="A51:A99" si="14">D51</f>
         <v>4061977.4594999999</v>
@@ -4495,7 +4495,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A52" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4538,7 +4538,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A53" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4581,7 +4581,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A54" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4624,7 +4624,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A55" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4667,7 +4667,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A56" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4710,7 +4710,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A57" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4753,7 +4753,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A58" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4796,7 +4796,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A59" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4839,7 +4839,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A60" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4882,7 +4882,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A61" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4925,7 +4925,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A62" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4968,7 +4968,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A63" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5011,7 +5011,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A64" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5054,7 +5054,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A65" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5097,7 +5097,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A66" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5140,7 +5140,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A67" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5183,7 +5183,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A68" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5226,7 +5226,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A69" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5269,7 +5269,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A70" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5312,7 +5312,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A71" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5355,7 +5355,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A72" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5398,7 +5398,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A73" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5441,7 +5441,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A74" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5484,7 +5484,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A75" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5527,7 +5527,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A76" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5570,7 +5570,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A77" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5613,7 +5613,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A78" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5656,7 +5656,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A79" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5699,7 +5699,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A80" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5742,7 +5742,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A81" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5785,7 +5785,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A82" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5828,7 +5828,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A83" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5871,7 +5871,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A84" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5914,7 +5914,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A85" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5957,7 +5957,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A86" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6000,7 +6000,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A87" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6043,7 +6043,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A88" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6086,7 +6086,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A89" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6129,7 +6129,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A90" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6172,7 +6172,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A91" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6215,7 +6215,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A92" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6258,7 +6258,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A93" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6301,7 +6301,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A94" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6344,7 +6344,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A95" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6387,7 +6387,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A96" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6430,7 +6430,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A97" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6473,7 +6473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A98" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6516,7 +6516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A99" s="2">
         <f t="shared" si="14"/>
         <v>4062008.0395</v>
@@ -6559,7 +6559,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A100" s="2">
         <f t="shared" ref="A100:A150" si="19">D100</f>
         <v>4062008.0395</v>
@@ -6602,7 +6602,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A101" s="2">
         <f t="shared" si="19"/>
         <v>4062008.0395</v>
@@ -6645,7 +6645,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A102" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6688,7 +6688,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A103" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6731,7 +6731,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A104" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6774,7 +6774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A105" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6817,7 +6817,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A106" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6860,7 +6860,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A107" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6903,7 +6903,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A108" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6946,7 +6946,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A109" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6989,7 +6989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A110" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -7032,7 +7032,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A111" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7075,7 +7075,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A112" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7118,7 +7118,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A113" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7161,7 +7161,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A114" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7204,7 +7204,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A115" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7247,7 +7247,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A116" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7290,7 +7290,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A117" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7333,7 +7333,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A118" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7376,7 +7376,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A119" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7419,7 +7419,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A120" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7462,7 +7462,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A121" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7505,7 +7505,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A122" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7548,7 +7548,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A123" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7591,7 +7591,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A124" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7634,7 +7634,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A125" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7677,7 +7677,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A126" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7720,7 +7720,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A127" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7763,7 +7763,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A128" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7806,7 +7806,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A129" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7849,7 +7849,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A130" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7892,7 +7892,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A131" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7935,7 +7935,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A132" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7978,7 +7978,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A133" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8021,7 +8021,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A134" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8064,7 +8064,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A135" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8107,7 +8107,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A136" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8150,7 +8150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A137" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8193,7 +8193,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A138" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8236,7 +8236,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A139" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8279,7 +8279,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A140" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8322,7 +8322,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A141" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8365,7 +8365,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A142" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8408,7 +8408,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A143" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8451,7 +8451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A144" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8494,7 +8494,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A145" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8537,7 +8537,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A146" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8580,7 +8580,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A147" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8623,7 +8623,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A148" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8666,7 +8666,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A149" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8709,7 +8709,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A150" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8752,7 +8752,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A151" s="2">
         <f t="shared" ref="A151:A205" si="24">D151</f>
         <v>4061974.2595000002</v>
@@ -8795,7 +8795,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A152" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8838,7 +8838,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A153" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8881,7 +8881,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A154" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8924,7 +8924,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A155" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -8967,7 +8967,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A156" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9010,7 +9010,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A157" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9053,7 +9053,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A158" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9096,7 +9096,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A159" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9139,7 +9139,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A160" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9182,7 +9182,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A161" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9225,7 +9225,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A162" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9268,7 +9268,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A163" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9311,7 +9311,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A164" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9354,7 +9354,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A165" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9397,7 +9397,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A166" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9440,7 +9440,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A167" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9483,7 +9483,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A168" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9526,7 +9526,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A169" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9569,7 +9569,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A170" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9612,7 +9612,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A171" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9655,7 +9655,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A172" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9698,7 +9698,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A173" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9741,7 +9741,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A174" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9784,7 +9784,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A175" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9827,7 +9827,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A176" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9870,7 +9870,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A177" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9913,7 +9913,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A178" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9956,7 +9956,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A179" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9999,7 +9999,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A180" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10042,7 +10042,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A181" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10085,7 +10085,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A182" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10128,7 +10128,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A183" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10171,7 +10171,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A184" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10214,7 +10214,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A185" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10257,7 +10257,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A186" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10300,7 +10300,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A187" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10343,7 +10343,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A188" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10386,7 +10386,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A189" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10429,7 +10429,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A190" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10472,7 +10472,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A191" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10515,7 +10515,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A192" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10558,7 +10558,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A193" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10601,7 +10601,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A194" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10644,7 +10644,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A195" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10687,7 +10687,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A196" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10730,7 +10730,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A197" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10773,7 +10773,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A198" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10816,7 +10816,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A199" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10859,7 +10859,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A200" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10902,7 +10902,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A201" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10945,7 +10945,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A202" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10988,7 +10988,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A203" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11031,7 +11031,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A204" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11074,7 +11074,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A205" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11117,7 +11117,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A206" s="2">
         <f t="shared" ref="A206:A258" si="29">D206</f>
         <v>4061936.1795000001</v>
@@ -11160,7 +11160,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A207" s="2">
         <f t="shared" si="29"/>
         <v>4061936.1795000001</v>
@@ -11203,7 +11203,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A208" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11246,7 +11246,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A209" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11289,7 +11289,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A210" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11332,7 +11332,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A211" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11375,7 +11375,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A212" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11418,7 +11418,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A213" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11461,7 +11461,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A214" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11504,7 +11504,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A215" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11547,7 +11547,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A216" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11590,7 +11590,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A217" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11633,7 +11633,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A218" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11676,7 +11676,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A219" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11719,7 +11719,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A220" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11762,7 +11762,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A221" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11805,7 +11805,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A222" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11848,7 +11848,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A223" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11891,7 +11891,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A224" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11934,7 +11934,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A225" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11977,7 +11977,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A226" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12020,7 +12020,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A227" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12063,7 +12063,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A228" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12106,7 +12106,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A229" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12149,7 +12149,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A230" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12192,7 +12192,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A231" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12235,7 +12235,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A232" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12278,7 +12278,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A233" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12321,7 +12321,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A234" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12364,7 +12364,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A235" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12407,7 +12407,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A236" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12450,7 +12450,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A237" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12493,7 +12493,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A238" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12536,7 +12536,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A239" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12579,7 +12579,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A240" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12622,7 +12622,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A241" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12665,7 +12665,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A242" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12708,7 +12708,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A243" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12751,7 +12751,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A244" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12794,7 +12794,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A245" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12837,7 +12837,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A246" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12880,7 +12880,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A247" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12923,7 +12923,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A248" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12966,7 +12966,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A249" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13009,7 +13009,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A250" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13052,7 +13052,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A251" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13095,7 +13095,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A252" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13138,7 +13138,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A253" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13181,7 +13181,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A254" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13224,7 +13224,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A255" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13267,7 +13267,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A256" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13310,7 +13310,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A257" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13353,7 +13353,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A258" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13396,7 +13396,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A259" s="2">
         <f t="shared" ref="A259:A310" si="37">D259</f>
         <v>4062002.6294999998</v>
@@ -13439,7 +13439,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A260" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13482,7 +13482,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A261" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13525,7 +13525,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A262" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13568,7 +13568,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A263" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13611,7 +13611,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A264" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13654,7 +13654,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A265" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13697,7 +13697,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A266" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13740,7 +13740,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A267" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13783,7 +13783,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A268" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13826,7 +13826,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A269" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13869,7 +13869,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A270" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13912,7 +13912,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A271" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -13955,7 +13955,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A272" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -13998,7 +13998,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A273" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14041,7 +14041,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A274" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14084,7 +14084,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A275" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14127,7 +14127,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A276" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14170,7 +14170,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A277" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14213,7 +14213,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A278" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14256,7 +14256,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A279" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14299,7 +14299,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A280" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14342,7 +14342,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A281" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14385,7 +14385,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A282" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14428,7 +14428,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A283" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14471,7 +14471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A284" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14514,7 +14514,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A285" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14557,7 +14557,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A286" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14600,7 +14600,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A287" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14643,7 +14643,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A288" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14686,7 +14686,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A289" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14729,7 +14729,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A290" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14772,7 +14772,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A291" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14815,7 +14815,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A292" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14858,7 +14858,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A293" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14901,7 +14901,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A294" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14944,7 +14944,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A295" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14987,7 +14987,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A296" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15030,7 +15030,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A297" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15073,7 +15073,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A298" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15116,7 +15116,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A299" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15159,7 +15159,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A300" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15202,7 +15202,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A301" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15245,7 +15245,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A302" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15288,7 +15288,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A303" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15331,7 +15331,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A304" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15374,7 +15374,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A305" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15417,7 +15417,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A306" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15460,7 +15460,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A307" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15503,7 +15503,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A308" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15546,7 +15546,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A309" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15589,7 +15589,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A310" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15632,7 +15632,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A311" s="2">
         <f t="shared" ref="A311:A363" si="42">D311</f>
         <v>4061952.5595</v>
@@ -15675,7 +15675,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A312" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15718,7 +15718,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A313" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15761,7 +15761,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A314" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15804,7 +15804,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A315" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15847,7 +15847,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A316" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15890,7 +15890,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A317" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15933,7 +15933,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A318" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15976,7 +15976,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A319" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16019,7 +16019,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A320" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16062,7 +16062,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A321" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16105,7 +16105,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A322" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16148,7 +16148,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A323" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16191,7 +16191,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A324" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16234,7 +16234,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A325" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16277,7 +16277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A326" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16320,7 +16320,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A327" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16363,7 +16363,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A328" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16406,7 +16406,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A329" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16449,7 +16449,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A330" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16492,7 +16492,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A331" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16535,7 +16535,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A332" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16578,7 +16578,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A333" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16621,7 +16621,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A334" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16664,7 +16664,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A335" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16707,7 +16707,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A336" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16750,7 +16750,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A337" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16793,7 +16793,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A338" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16836,7 +16836,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A339" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16879,7 +16879,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A340" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16922,7 +16922,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A341" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16965,7 +16965,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A342" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -17008,7 +17008,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A343" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17051,7 +17051,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A344" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17094,7 +17094,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A345" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17137,7 +17137,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A346" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17180,7 +17180,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A347" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17223,7 +17223,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A348" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17266,7 +17266,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A349" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17309,7 +17309,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A350" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17352,7 +17352,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A351" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17395,7 +17395,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A352" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17438,7 +17438,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A353" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17481,7 +17481,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A354" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17524,7 +17524,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A355" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17567,7 +17567,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A356" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17610,7 +17610,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A357" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17653,7 +17653,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A358" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17696,7 +17696,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A359" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17739,7 +17739,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A360" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17782,7 +17782,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A361" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17825,7 +17825,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A362" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17868,7 +17868,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A363" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17911,7 +17911,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A364" s="2">
         <f t="shared" ref="A364:A418" si="50">D364</f>
         <v>4061887.5295000002</v>
@@ -17954,7 +17954,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A365" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -17997,7 +17997,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A366" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18040,7 +18040,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A367" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18083,7 +18083,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A368" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18126,7 +18126,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A369" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18169,7 +18169,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A370" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18212,7 +18212,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A371" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18255,7 +18255,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A372" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18298,7 +18298,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A373" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18341,7 +18341,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A374" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18384,7 +18384,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A375" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18427,7 +18427,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A376" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18470,7 +18470,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A377" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18513,7 +18513,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A378" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18556,7 +18556,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A379" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18599,7 +18599,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A380" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18642,7 +18642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A381" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18685,7 +18685,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A382" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18728,7 +18728,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A383" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18771,7 +18771,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A384" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18814,7 +18814,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A385" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18857,7 +18857,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A386" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18900,7 +18900,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A387" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18943,7 +18943,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A388" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18986,7 +18986,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A389" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19029,7 +19029,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A390" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19072,7 +19072,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A391" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19115,7 +19115,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A392" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19158,7 +19158,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A393" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19201,7 +19201,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A394" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19244,7 +19244,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A395" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19287,7 +19287,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A396" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19330,7 +19330,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A397" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19373,7 +19373,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A398" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19416,7 +19416,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A399" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19459,7 +19459,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A400" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19502,7 +19502,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A401" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19545,7 +19545,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A402" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19588,7 +19588,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A403" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19631,7 +19631,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A404" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19674,7 +19674,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A405" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19717,7 +19717,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A406" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19760,7 +19760,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A407" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19803,7 +19803,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A408" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19846,7 +19846,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A409" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19889,7 +19889,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A410" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19932,7 +19932,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A411" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19975,7 +19975,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A412" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20018,7 +20018,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A413" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20061,7 +20061,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A414" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20104,7 +20104,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A415" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20147,7 +20147,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A416" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20190,7 +20190,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A417" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20233,7 +20233,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A418" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20276,7 +20276,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A419" s="2">
         <f t="shared" ref="A419:A481" si="58">D419</f>
         <v>4061900.3895</v>
@@ -20319,7 +20319,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A420" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20362,7 +20362,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A421" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20405,7 +20405,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A422" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20448,7 +20448,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A423" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20491,7 +20491,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A424" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20534,7 +20534,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A425" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20577,7 +20577,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A426" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20620,7 +20620,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A427" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20663,7 +20663,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A428" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20706,7 +20706,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A429" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20749,7 +20749,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A430" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20792,7 +20792,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A431" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20835,7 +20835,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A432" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20878,7 +20878,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A433" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20921,7 +20921,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A435" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20943,7 +20943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A436" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20980,7 +20980,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A437" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21017,7 +21017,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A438" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21054,7 +21054,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A439" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21091,7 +21091,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A440" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21128,7 +21128,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A441" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21165,7 +21165,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A442" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21202,7 +21202,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A443" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21224,7 +21224,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A444" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21261,7 +21261,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A445" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21298,7 +21298,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A446" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21335,7 +21335,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A447" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21372,7 +21372,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A448" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21409,7 +21409,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A449" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21446,7 +21446,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A450" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21483,7 +21483,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A451" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21505,7 +21505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A452" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21542,7 +21542,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A453" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21579,7 +21579,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A454" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21601,7 +21601,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A455" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21638,7 +21638,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A456" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21675,7 +21675,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A457" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21712,7 +21712,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A458" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21749,7 +21749,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A459" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21786,7 +21786,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A460" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21823,7 +21823,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A461" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21860,7 +21860,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A462" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21897,7 +21897,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A463" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21919,7 +21919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A464" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21956,7 +21956,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A465" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21993,7 +21993,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A466" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22030,7 +22030,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A467" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22067,7 +22067,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A468" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22089,7 +22089,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A469" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22126,7 +22126,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A470" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22163,7 +22163,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A471" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22200,7 +22200,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A472" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22237,7 +22237,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A473" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22274,7 +22274,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A474" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22296,7 +22296,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A475" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22333,7 +22333,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A476" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22370,7 +22370,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A477" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22407,7 +22407,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A478" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22429,7 +22429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A479" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22466,7 +22466,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A480" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22503,7 +22503,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A481" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22540,7 +22540,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A482" s="2">
         <f t="shared" ref="A482:A545" si="63">D482</f>
         <v>0</v>
@@ -22577,7 +22577,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A483" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22614,7 +22614,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A484" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22651,7 +22651,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A485" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22673,7 +22673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A486" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22710,7 +22710,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A487" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22747,7 +22747,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A488" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22784,7 +22784,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A489" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22821,7 +22821,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A490" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22843,7 +22843,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A491" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22880,7 +22880,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A492" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22917,7 +22917,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A493" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22954,7 +22954,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A494" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22991,7 +22991,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A495" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23028,7 +23028,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A496" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23050,7 +23050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A497" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23087,7 +23087,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A498" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23124,7 +23124,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A499" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23161,7 +23161,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A500" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23198,7 +23198,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A501" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23235,7 +23235,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A502" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23272,7 +23272,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A503" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23309,7 +23309,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A504" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23346,7 +23346,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A505" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23368,7 +23368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A506" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23405,7 +23405,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A507" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23442,7 +23442,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A508" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23464,7 +23464,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A509" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23501,7 +23501,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A510" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23538,7 +23538,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A511" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23575,7 +23575,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A512" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23612,7 +23612,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A513" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23649,7 +23649,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A514" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23686,7 +23686,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A515" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23708,7 +23708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A516" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23745,7 +23745,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A517" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23782,7 +23782,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A518" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23819,7 +23819,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A519" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23856,7 +23856,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A520" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23893,7 +23893,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A521" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23915,7 +23915,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A522" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23952,7 +23952,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A523" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23989,7 +23989,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A524" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24026,7 +24026,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A525" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24063,7 +24063,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A526" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24100,7 +24100,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A527" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24137,7 +24137,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A528" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24159,7 +24159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A529" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24196,7 +24196,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A530" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24233,7 +24233,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A531" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24270,7 +24270,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A532" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24292,7 +24292,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A533" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24329,7 +24329,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A534" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24366,7 +24366,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A535" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24388,7 +24388,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A536" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24425,7 +24425,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A537" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24462,7 +24462,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A538" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24499,7 +24499,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A539" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24521,7 +24521,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A540" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24558,7 +24558,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A541" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24595,7 +24595,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A542" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24632,7 +24632,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A543" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24669,7 +24669,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A544" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24691,7 +24691,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A545" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24728,7 +24728,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A546" s="2">
         <f t="shared" ref="A546:A609" si="68">D546</f>
         <v>0</v>
@@ -24765,7 +24765,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A547" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24802,7 +24802,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A548" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24839,7 +24839,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A549" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24861,7 +24861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A550" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A551" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24935,7 +24935,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A552" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24972,7 +24972,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A553" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25009,7 +25009,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A554" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25046,7 +25046,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A555" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25083,7 +25083,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A556" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25105,7 +25105,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A557" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25142,7 +25142,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A558" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25179,7 +25179,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A559" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25216,7 +25216,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A560" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25253,7 +25253,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A561" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25290,7 +25290,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A562" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25312,7 +25312,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A563" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25349,7 +25349,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A564" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25386,7 +25386,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A565" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25423,7 +25423,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A566" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25460,7 +25460,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A567" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25497,7 +25497,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A568" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25534,7 +25534,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A569" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25571,7 +25571,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A570" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25608,7 +25608,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A571" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25630,7 +25630,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A572" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25667,7 +25667,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A573" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25704,7 +25704,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A574" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25741,7 +25741,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A575" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25778,7 +25778,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A576" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25815,7 +25815,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A577" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25852,7 +25852,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A578" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25889,7 +25889,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A579" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25926,7 +25926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A580" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25948,7 +25948,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A581" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25985,7 +25985,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A582" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26022,7 +26022,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A583" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26059,7 +26059,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A584" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26096,7 +26096,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A585" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26118,7 +26118,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A586" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26155,7 +26155,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A587" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26192,7 +26192,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A588" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26229,7 +26229,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A589" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26266,7 +26266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A590" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26303,7 +26303,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A591" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26340,7 +26340,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A592" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26377,7 +26377,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A593" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26399,7 +26399,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A594" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26436,7 +26436,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A595" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26473,7 +26473,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A596" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26510,7 +26510,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A597" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26532,7 +26532,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A598" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26569,7 +26569,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A599" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26606,7 +26606,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A600" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26643,7 +26643,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A601" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26680,7 +26680,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A602" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26717,7 +26717,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A603" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26754,7 +26754,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A604" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26791,7 +26791,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A605" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26828,7 +26828,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A606" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26865,7 +26865,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A607" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26902,7 +26902,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A608" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26924,7 +26924,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A609" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26961,7 +26961,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A610" s="2">
         <f t="shared" ref="A610:A673" si="73">D610</f>
         <v>0</v>
@@ -26998,7 +26998,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A611" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27035,7 +27035,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A612" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27072,7 +27072,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A613" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27109,7 +27109,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A614" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27146,7 +27146,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A615" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27183,7 +27183,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A616" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27220,7 +27220,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A617" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27257,7 +27257,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A618" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27294,7 +27294,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A619" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27316,7 +27316,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A620" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27353,7 +27353,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A621" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27390,7 +27390,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A622" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27427,7 +27427,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A623" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27464,7 +27464,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A624" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27501,7 +27501,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A625" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27538,7 +27538,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A626" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27575,7 +27575,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A627" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27612,7 +27612,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A628" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27649,7 +27649,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A629" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27671,7 +27671,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A630" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27708,7 +27708,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A631" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27745,7 +27745,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A632" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27767,7 +27767,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A633" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27804,7 +27804,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A634" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27841,7 +27841,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A635" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27878,7 +27878,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A636" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27915,7 +27915,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A637" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27952,7 +27952,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A638" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27989,7 +27989,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A639" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28026,7 +28026,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A640" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28048,7 +28048,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A641" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28085,7 +28085,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A642" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28122,7 +28122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A643" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28159,7 +28159,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A644" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28196,7 +28196,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A645" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28233,7 +28233,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A646" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28270,7 +28270,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A647" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28307,7 +28307,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A648" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28329,7 +28329,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A649" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28366,7 +28366,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A650" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28403,7 +28403,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A651" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28440,7 +28440,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A652" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28477,7 +28477,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A653" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28514,7 +28514,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A654" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28551,7 +28551,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A655" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28588,7 +28588,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A656" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28625,7 +28625,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A657" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28647,7 +28647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A658" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28684,7 +28684,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A659" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28721,7 +28721,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A660" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28758,7 +28758,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A661" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28795,7 +28795,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A662" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28832,7 +28832,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A663" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28869,7 +28869,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A664" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28906,7 +28906,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A665" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28943,7 +28943,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A666" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28980,7 +28980,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A667" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29002,7 +29002,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A668" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29039,7 +29039,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A669" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29076,7 +29076,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A670" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29113,7 +29113,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A671" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29150,7 +29150,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A672" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29187,7 +29187,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A673" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29224,7 +29224,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A674" s="2">
         <f t="shared" ref="A674:A737" si="78">D674</f>
         <v>0</v>
@@ -29261,7 +29261,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A675" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29298,7 +29298,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A676" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29335,7 +29335,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A677" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29357,7 +29357,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A678" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29394,7 +29394,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A679" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29431,7 +29431,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A680" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29468,7 +29468,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A681" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29505,7 +29505,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A682" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29542,7 +29542,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A683" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29579,7 +29579,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A684" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29616,7 +29616,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A685" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29653,7 +29653,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A686" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29675,7 +29675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A687" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29712,7 +29712,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A688" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29749,7 +29749,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A689" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29786,7 +29786,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A690" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29823,7 +29823,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A691" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29860,7 +29860,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A692" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29897,7 +29897,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A693" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29934,7 +29934,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A694" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29971,7 +29971,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A695" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30008,7 +30008,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A696" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30030,7 +30030,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A697" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30067,7 +30067,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A698" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30104,7 +30104,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A699" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30141,7 +30141,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A700" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30178,7 +30178,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A701" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30215,7 +30215,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A702" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30252,7 +30252,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A703" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30274,7 +30274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A704" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30311,7 +30311,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A705" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30348,7 +30348,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A706" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30385,7 +30385,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A707" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30422,7 +30422,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A708" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30444,7 +30444,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A709" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30481,7 +30481,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A710" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30518,7 +30518,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A711" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30555,7 +30555,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A712" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30592,7 +30592,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A713" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30614,7 +30614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A714" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30651,7 +30651,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A715" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30688,7 +30688,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A716" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30725,7 +30725,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A717" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30762,7 +30762,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A718" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30784,7 +30784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A719" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30821,7 +30821,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A720" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30858,7 +30858,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A721" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30895,7 +30895,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A722" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30932,7 +30932,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A723" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30954,7 +30954,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A724" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30991,7 +30991,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A725" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31028,7 +31028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A726" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31065,7 +31065,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A727" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31102,7 +31102,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A728" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31124,7 +31124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A729" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31161,7 +31161,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A730" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31198,7 +31198,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A731" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31235,7 +31235,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A732" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31272,7 +31272,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A733" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31309,7 +31309,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A734" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31346,7 +31346,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A735" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31368,7 +31368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A736" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31405,7 +31405,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A737" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31442,7 +31442,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A738" s="2">
         <f t="shared" ref="A738:A801" si="83">D738</f>
         <v>0</v>
@@ -31479,7 +31479,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A739" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31516,7 +31516,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A740" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31553,7 +31553,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A741" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31575,7 +31575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A742" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31612,7 +31612,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A743" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31649,7 +31649,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A744" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31686,7 +31686,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A745" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31708,7 +31708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A746" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31745,7 +31745,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A747" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31782,7 +31782,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A748" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31819,7 +31819,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A749" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31856,7 +31856,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A750" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31893,7 +31893,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A751" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31930,7 +31930,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A752" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31967,7 +31967,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A753" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31989,7 +31989,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A754" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32026,7 +32026,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A755" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32063,7 +32063,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A756" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32100,7 +32100,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A757" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32137,7 +32137,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A758" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32174,7 +32174,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A759" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32196,7 +32196,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A760" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32233,7 +32233,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A761" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32270,7 +32270,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A762" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32307,7 +32307,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A763" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32344,7 +32344,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A764" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32366,7 +32366,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A765" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32403,7 +32403,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A766" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32440,7 +32440,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A767" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32477,7 +32477,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A768" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32514,7 +32514,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A769" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32536,7 +32536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A770" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32573,7 +32573,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A771" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32610,7 +32610,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A772" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32647,7 +32647,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A773" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32684,7 +32684,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A774" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32721,7 +32721,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A775" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32758,7 +32758,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A776" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32795,7 +32795,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A777" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32832,7 +32832,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A778" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32854,7 +32854,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A779" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32891,7 +32891,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A780" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32928,7 +32928,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A781" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32965,7 +32965,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A782" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33002,7 +33002,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A783" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33039,7 +33039,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A784" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33076,7 +33076,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A785" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33113,7 +33113,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A786" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33135,7 +33135,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A787" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33172,7 +33172,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A788" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33209,7 +33209,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A789" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33246,7 +33246,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A790" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33283,7 +33283,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A791" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33305,7 +33305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A792" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33342,7 +33342,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A793" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33379,7 +33379,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A794" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33416,7 +33416,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A795" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33453,7 +33453,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A796" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33490,7 +33490,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A797" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33527,7 +33527,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A798" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33549,7 +33549,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A799" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33586,7 +33586,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A800" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33623,7 +33623,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A801" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33660,7 +33660,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A802" s="2">
         <f t="shared" ref="A802:A839" si="91">D802</f>
         <v>0</v>
@@ -33697,7 +33697,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A803" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33734,7 +33734,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A804" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33771,7 +33771,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A805" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33808,7 +33808,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A806" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33845,7 +33845,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A807" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33882,7 +33882,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A808" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33919,7 +33919,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A809" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33941,7 +33941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A810" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33978,7 +33978,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A811" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34015,7 +34015,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A812" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34052,7 +34052,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A813" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34089,7 +34089,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A814" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34126,7 +34126,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A815" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34163,7 +34163,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A816" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34200,7 +34200,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A817" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34237,7 +34237,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A818" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34259,7 +34259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A819" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34296,7 +34296,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A820" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34333,7 +34333,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A821" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34370,7 +34370,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A822" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34392,7 +34392,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A823" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34429,7 +34429,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A824" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34466,7 +34466,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A825" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34503,7 +34503,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A826" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34540,7 +34540,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A827" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34577,7 +34577,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A828" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34614,7 +34614,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A829" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34651,7 +34651,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A830" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34673,7 +34673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A831" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34710,7 +34710,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A832" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34747,7 +34747,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A833" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34784,7 +34784,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A834" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34821,7 +34821,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A835" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34858,7 +34858,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A836" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34895,7 +34895,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A837" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34905,7 +34905,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A838" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34942,7 +34942,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.4">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A839" s="2">
         <f t="shared" si="91"/>
         <v>0</v>

--- a/RawData/RawPointData.xlsx
+++ b/RawData/RawPointData.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Users\Codes\AboveTheMoho\RawData\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Alaska\Codes\AboveTheMoho\RawData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{04B56480-D062-412B-8F4B-66E95D0E149A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AC85FF99-8712-4D14-8EEC-F8086FBD0EB7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="16440" activeTab="2" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
+    <workbookView xWindow="-98" yWindow="-98" windowWidth="20715" windowHeight="13875" activeTab="2" xr2:uid="{0C78847D-B806-499C-BA49-B62AB7DDF5BA}"/>
   </bookViews>
   <sheets>
     <sheet name="LAYER_LIBARY" sheetId="2" r:id="rId1"/>
@@ -865,17 +865,17 @@
       <selection activeCell="C26" sqref="C26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="11.125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="9.125" style="1"/>
-    <col min="3" max="3" width="15.75" style="2" customWidth="1"/>
-    <col min="4" max="5" width="9.125" style="2"/>
-    <col min="6" max="6" width="13.25" style="2" customWidth="1"/>
-    <col min="7" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="11.1328125" style="1" customWidth="1"/>
+    <col min="2" max="2" width="9.1328125" style="1"/>
+    <col min="3" max="3" width="15.73046875" style="2" customWidth="1"/>
+    <col min="4" max="5" width="9.1328125" style="2"/>
+    <col min="6" max="6" width="13.265625" style="2" customWidth="1"/>
+    <col min="7" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>8</v>
       </c>
@@ -895,7 +895,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>13</v>
       </c>
@@ -906,7 +906,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A3" s="1" t="s">
         <v>16</v>
       </c>
@@ -917,7 +917,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A4" s="1" t="s">
         <v>20</v>
       </c>
@@ -928,7 +928,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A5" s="1" t="s">
         <v>23</v>
       </c>
@@ -939,7 +939,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A6" s="1" t="s">
         <v>26</v>
       </c>
@@ -950,7 +950,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A7" s="1" t="s">
         <v>29</v>
       </c>
@@ -961,7 +961,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A8" s="1" t="s">
         <v>31</v>
       </c>
@@ -972,7 +972,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A9" s="1" t="s">
         <v>33</v>
       </c>
@@ -983,7 +983,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A10" s="1" t="s">
         <v>35</v>
       </c>
@@ -994,7 +994,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>38</v>
       </c>
@@ -1005,7 +1005,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A12" s="1" t="s">
         <v>41</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A13" s="1" t="s">
         <v>44</v>
       </c>
@@ -1027,7 +1027,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.4">
       <c r="A14" s="1" t="s">
         <v>47</v>
       </c>
@@ -1049,16 +1049,18 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AF16C6F1-A4CA-4FD6-A0ED-DEF910A4128D}">
   <dimension ref="A1:C100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C44" sqref="C44"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="16.625" style="4" customWidth="1"/>
+    <col min="1" max="1" width="16.59765625" style="4" customWidth="1"/>
     <col min="2" max="2" width="20" style="4" customWidth="1"/>
-    <col min="3" max="3" width="13.625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.59765625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:3" s="2" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>6</v>
       </c>
@@ -1069,7 +1071,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A2" s="4">
         <v>520616.10629999998</v>
       </c>
@@ -1080,7 +1082,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A3" s="4">
         <v>520638.13630000001</v>
       </c>
@@ -1091,7 +1093,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A4" s="4">
         <v>520660.23629999999</v>
       </c>
@@ -1102,7 +1104,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A5" s="4">
         <v>520679.1863</v>
       </c>
@@ -1113,7 +1115,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A6" s="4">
         <v>520683.35629999998</v>
       </c>
@@ -1124,7 +1126,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A7" s="4">
         <v>520615.89630000002</v>
       </c>
@@ -1135,7 +1137,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A8" s="4">
         <v>520640.76630000002</v>
       </c>
@@ -1146,7 +1148,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A9" s="4">
         <v>520656.47629999998</v>
       </c>
@@ -1157,7 +1159,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A10" s="4">
         <v>520665.5563</v>
       </c>
@@ -1168,7 +1170,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A11" s="4">
         <v>520669.17629999999</v>
       </c>
@@ -1179,7 +1181,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A12" s="4">
         <v>520616.94630000001</v>
       </c>
@@ -1190,7 +1192,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A13" s="4">
         <v>520638.66629999998</v>
       </c>
@@ -1201,7 +1203,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A14" s="4">
         <v>520614.4363</v>
       </c>
@@ -1212,7 +1214,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A15" s="4">
         <v>520632.53629999998</v>
       </c>
@@ -1223,7 +1225,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A16" s="4">
         <v>520653.38630000001</v>
       </c>
@@ -1234,7 +1236,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A17" s="4">
         <v>520675.0563</v>
       </c>
@@ -1245,7 +1247,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A18" s="4">
         <v>520613.89630000002</v>
       </c>
@@ -1256,7 +1258,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A19" s="4">
         <v>520652.17629999999</v>
       </c>
@@ -1267,7 +1269,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A20" s="4">
         <v>520667.92629999999</v>
       </c>
@@ -1278,7 +1280,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A21" s="4">
         <v>520608.54629999999</v>
       </c>
@@ -1289,7 +1291,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A22" s="4">
         <v>520629.70630000002</v>
       </c>
@@ -1300,7 +1302,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A23" s="4">
         <v>520650.50630000001</v>
       </c>
@@ -1311,7 +1313,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A24" s="4">
         <v>520613.84629999998</v>
       </c>
@@ -1322,7 +1324,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A25" s="4">
         <v>520635.46629999997</v>
       </c>
@@ -1333,7 +1335,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A26" s="4">
         <v>520652.83630000002</v>
       </c>
@@ -1344,7 +1346,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A27" s="4">
         <v>520667.6863</v>
       </c>
@@ -1355,7 +1357,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A28" s="4">
         <v>520614.15629999997</v>
       </c>
@@ -1366,7 +1368,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A29" s="4">
         <v>520638.94630000001</v>
       </c>
@@ -1377,7 +1379,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A30" s="4">
         <v>520661.8063</v>
       </c>
@@ -1388,7 +1390,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A31" s="4">
         <v>520455.67629999999</v>
       </c>
@@ -1399,7 +1401,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A32" s="4">
         <v>520480.28629999998</v>
       </c>
@@ -1410,7 +1412,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A33" s="4">
         <v>520505.14630000002</v>
       </c>
@@ -1421,7 +1423,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A34" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -1432,7 +1434,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A35" s="4">
         <v>520534.61629999999</v>
       </c>
@@ -1443,7 +1445,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A36" s="4">
         <v>520561.45630000002</v>
       </c>
@@ -1454,7 +1456,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A37" s="4">
         <v>520451.13630000001</v>
       </c>
@@ -1465,7 +1467,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A38" s="4">
         <v>520463.92629999999</v>
       </c>
@@ -1476,7 +1478,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A39" s="4">
         <v>520484.01630000002</v>
       </c>
@@ -1487,7 +1489,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A40" s="4">
         <v>520506.02630000003</v>
       </c>
@@ -1498,7 +1500,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A41" s="4">
         <v>520531.22629999998</v>
       </c>
@@ -1509,7 +1511,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A42" s="4">
         <v>520545.7463</v>
       </c>
@@ -1520,7 +1522,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A43" s="4">
         <v>520556.42629999999</v>
       </c>
@@ -1531,7 +1533,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A44" s="4">
         <v>520469.95630000002</v>
       </c>
@@ -1542,7 +1544,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A45" s="4">
         <v>520489.89630000002</v>
       </c>
@@ -1553,7 +1555,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A46" s="4">
         <v>520508.40629999997</v>
       </c>
@@ -1564,7 +1566,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A47" s="4">
         <v>520525.90629999997</v>
       </c>
@@ -1575,7 +1577,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A48" s="4">
         <v>520463.72629999998</v>
       </c>
@@ -1586,7 +1588,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="49" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A49" s="4">
         <v>520475.4363</v>
       </c>
@@ -1597,7 +1599,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="50" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A50" s="4">
         <v>520491.90629999997</v>
       </c>
@@ -1608,7 +1610,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="51" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A51" s="4">
         <v>520513.46629999997</v>
       </c>
@@ -1619,7 +1621,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="52" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A52" s="4">
         <v>520446.58630000002</v>
       </c>
@@ -1630,7 +1632,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="53" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A53" s="4">
         <v>520474.86629999999</v>
       </c>
@@ -1641,7 +1643,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="54" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A54" s="4">
         <v>520497.47629999998</v>
       </c>
@@ -1652,7 +1654,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="55" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A55" s="4">
         <v>520488.11629999999</v>
       </c>
@@ -1663,7 +1665,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="56" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A56" s="4">
         <v>520446.9302</v>
       </c>
@@ -1674,7 +1676,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="57" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A57" s="4">
         <v>520454.41629999998</v>
       </c>
@@ -1685,7 +1687,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="58" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A58" s="4">
         <v>520464.78629999998</v>
       </c>
@@ -1696,7 +1698,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="59" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A59" s="4">
         <v>520441.50630000001</v>
       </c>
@@ -1707,7 +1709,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="60" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A60" s="4">
         <v>520462.88630000001</v>
       </c>
@@ -1718,7 +1720,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="61" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A61" s="4">
         <v>520543.15629999997</v>
       </c>
@@ -1729,7 +1731,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="62" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A62" s="4">
         <v>520561.69630000001</v>
       </c>
@@ -1740,7 +1742,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="63" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A63" s="4">
         <v>520565.70630000002</v>
       </c>
@@ -1751,7 +1753,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="64" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A64" s="4">
         <v>520587.69630000001</v>
       </c>
@@ -1762,7 +1764,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="65" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A65" s="4">
         <v>520578.83630000002</v>
       </c>
@@ -1773,7 +1775,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A66" s="4">
         <v>520569.01630000002</v>
       </c>
@@ -1784,7 +1786,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="67" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A67" s="4">
         <v>520561.34629999998</v>
       </c>
@@ -1795,7 +1797,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="68" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A68" s="4">
         <v>520555.23629999999</v>
       </c>
@@ -1806,7 +1808,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="69" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A69" s="4">
         <v>520596.36629999999</v>
       </c>
@@ -1817,7 +1819,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="70" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A70" s="4">
         <v>520590.64630000002</v>
       </c>
@@ -1828,7 +1830,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="71" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A71" s="4">
         <v>520583.10629999998</v>
       </c>
@@ -1839,7 +1841,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="72" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A72" s="4">
         <v>520573.65629999997</v>
       </c>
@@ -1850,7 +1852,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="73" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A73" s="4">
         <v>520581.54629999999</v>
       </c>
@@ -1861,7 +1863,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="74" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A74" s="4">
         <v>520514.91629999998</v>
       </c>
@@ -1872,7 +1874,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="75" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A75" s="4">
         <v>520533.22629999998</v>
       </c>
@@ -1883,7 +1885,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="76" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A76" s="4">
         <v>520549.00630000001</v>
       </c>
@@ -1894,7 +1896,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="77" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A77" s="4">
         <v>520569.63630000001</v>
       </c>
@@ -1905,7 +1907,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="78" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A78" s="4">
         <v>520540.59629999998</v>
       </c>
@@ -1916,7 +1918,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="79" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A79" s="4">
         <v>520594.0563</v>
       </c>
@@ -1927,7 +1929,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="80" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A80" s="4">
         <v>520434.21629999997</v>
       </c>
@@ -1938,7 +1940,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="81" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A81" s="4">
         <v>520443.98629999999</v>
       </c>
@@ -1949,7 +1951,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="82" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A82" s="4">
         <v>520464.95630000002</v>
       </c>
@@ -1960,7 +1962,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="83" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A83" s="4">
         <v>520486.0563</v>
       </c>
@@ -1971,7 +1973,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="84" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A84" s="4">
         <v>520491.70630000002</v>
       </c>
@@ -1982,7 +1984,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="85" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A85" s="4">
         <v>520527.20630000002</v>
       </c>
@@ -1993,7 +1995,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="86" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A86" s="4">
         <v>520507.25630000001</v>
       </c>
@@ -2004,7 +2006,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="87" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A87" s="4">
         <v>520446.14630000002</v>
       </c>
@@ -2015,7 +2017,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="88" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A88" s="4">
         <v>520458.86629999999</v>
       </c>
@@ -2026,7 +2028,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="89" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A89" s="4">
         <v>520467.38630000001</v>
       </c>
@@ -2037,7 +2039,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="90" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A90" s="4">
         <v>520488.42629999999</v>
       </c>
@@ -2048,7 +2050,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="91" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A91" s="4">
         <v>520509.54629999999</v>
       </c>
@@ -2059,7 +2061,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="92" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A92" s="4">
         <v>520516.7463</v>
       </c>
@@ -2070,7 +2072,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="93" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A93" s="4">
         <v>520525.65629999997</v>
       </c>
@@ -2081,7 +2083,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A94" s="4">
         <v>520547.88630000001</v>
       </c>
@@ -2092,7 +2094,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="95" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A95" s="4">
         <v>520569.98629999999</v>
       </c>
@@ -2103,7 +2105,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="96" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A96" s="4">
         <v>520591.8763</v>
       </c>
@@ -2114,7 +2116,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="97" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A97" s="4">
         <v>520608.9963</v>
       </c>
@@ -2125,7 +2127,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="98" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A98" s="4">
         <v>520614.45630000002</v>
       </c>
@@ -2136,7 +2138,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="99" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A99" s="4">
         <v>520636.70630000002</v>
       </c>
@@ -2147,7 +2149,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:3" x14ac:dyDescent="0.4">
       <c r="A100" s="4">
         <v>520650.46629999997</v>
       </c>
@@ -2172,28 +2174,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:M839"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="D13"/>
+    <sheetView tabSelected="1" topLeftCell="A121" workbookViewId="0">
+      <selection activeCell="L137" sqref="L137"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9.125" defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="9.1328125" defaultRowHeight="13.9" x14ac:dyDescent="0.4"/>
   <cols>
-    <col min="1" max="1" width="13.625" style="2" customWidth="1"/>
-    <col min="2" max="2" width="13.375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="13.125" style="2" customWidth="1"/>
-    <col min="4" max="4" width="14.625" style="2" customWidth="1"/>
-    <col min="5" max="5" width="7.5" style="3" customWidth="1"/>
-    <col min="6" max="6" width="12.5" style="3" customWidth="1"/>
-    <col min="7" max="7" width="13.75" style="3" customWidth="1"/>
-    <col min="8" max="8" width="14.25" style="3" customWidth="1"/>
-    <col min="9" max="9" width="18.75" style="3" customWidth="1"/>
-    <col min="10" max="10" width="12.5" style="3" customWidth="1"/>
-    <col min="11" max="12" width="8.75" style="1" customWidth="1"/>
-    <col min="13" max="13" width="7.5" style="2" customWidth="1"/>
-    <col min="14" max="16384" width="9.125" style="2"/>
+    <col min="1" max="1" width="13.59765625" style="2" customWidth="1"/>
+    <col min="2" max="2" width="13.3984375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="13.1328125" style="2" customWidth="1"/>
+    <col min="4" max="4" width="14.59765625" style="2" customWidth="1"/>
+    <col min="5" max="5" width="7.46484375" style="3" customWidth="1"/>
+    <col min="6" max="6" width="12.46484375" style="3" customWidth="1"/>
+    <col min="7" max="7" width="13.73046875" style="3" customWidth="1"/>
+    <col min="8" max="8" width="14.265625" style="3" customWidth="1"/>
+    <col min="9" max="9" width="18.73046875" style="3" customWidth="1"/>
+    <col min="10" max="10" width="12.46484375" style="3" customWidth="1"/>
+    <col min="11" max="12" width="8.73046875" style="1" customWidth="1"/>
+    <col min="13" max="13" width="7.46484375" style="2" customWidth="1"/>
+    <col min="14" max="16384" width="9.1328125" style="2"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A1" s="2" t="s">
         <v>50</v>
       </c>
@@ -2234,7 +2236,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A2" s="2">
         <f>D2</f>
         <v>4062024.1494999998</v>
@@ -2280,7 +2282,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="3" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A3" s="2">
         <f t="shared" ref="A3:A50" si="0">D3</f>
         <v>4062024.1494999998</v>
@@ -2326,7 +2328,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A4" s="2">
         <f t="shared" si="0"/>
         <v>4062024.1494999998</v>
@@ -2372,7 +2374,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A5" s="2">
         <f t="shared" si="0"/>
         <v>4062024.1494999998</v>
@@ -2418,7 +2420,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A6" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2464,7 +2466,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A7" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2510,7 +2512,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A8" s="2">
         <f t="shared" si="0"/>
         <v>4062024.6595000001</v>
@@ -2556,7 +2558,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A9" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2602,7 +2604,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A10" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2648,7 +2650,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A11" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2694,7 +2696,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A12" s="2">
         <f t="shared" si="0"/>
         <v>4062024.2995000002</v>
@@ -2740,7 +2742,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A13" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2786,7 +2788,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A14" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2832,7 +2834,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A15" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2878,7 +2880,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A16" s="2">
         <f t="shared" si="0"/>
         <v>4062014.3195000002</v>
@@ -2924,7 +2926,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A17" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -2970,7 +2972,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A18" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3016,7 +3018,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A19" s="2">
         <f t="shared" si="0"/>
         <v>4061997.1795000001</v>
@@ -3062,7 +3064,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A20" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3108,7 +3110,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A21" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3154,7 +3156,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A22" s="2">
         <f t="shared" si="0"/>
         <v>4062010.9095000001</v>
@@ -3200,7 +3202,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A23" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3246,7 +3248,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A24" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3292,7 +3294,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A25" s="2">
         <f t="shared" si="0"/>
         <v>4062009.6195</v>
@@ -3338,7 +3340,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A26" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3384,7 +3386,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A27" s="2">
         <f t="shared" si="0"/>
         <v>4062016.6995000001</v>
@@ -3430,7 +3432,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A28" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3476,7 +3478,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A29" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3522,7 +3524,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A30" s="2">
         <f t="shared" si="0"/>
         <v>4062007.2395000001</v>
@@ -3568,7 +3570,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A31" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3614,7 +3616,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A32" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3660,7 +3662,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A33" s="2">
         <f t="shared" si="0"/>
         <v>4061995.3794999998</v>
@@ -3706,7 +3708,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A34" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3752,7 +3754,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A35" s="2">
         <f t="shared" si="0"/>
         <v>4062000.5395</v>
@@ -3798,7 +3800,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A36" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3844,7 +3846,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A37" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3890,7 +3892,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A38" s="2">
         <f t="shared" si="0"/>
         <v>4062001.8794999998</v>
@@ -3936,7 +3938,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A39" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -3979,7 +3981,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A40" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4022,7 +4024,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A41" s="2">
         <f t="shared" si="0"/>
         <v>4061988.5194999999</v>
@@ -4065,7 +4067,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A42" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4108,7 +4110,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A43" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4151,7 +4153,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A44" s="2">
         <f t="shared" si="0"/>
         <v>4061978.4895000001</v>
@@ -4194,7 +4196,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A45" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4237,7 +4239,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A46" s="2">
         <f t="shared" si="0"/>
         <v>4061983.0295000002</v>
@@ -4280,7 +4282,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A47" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4323,7 +4325,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A48" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4366,7 +4368,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A49" s="2">
         <f t="shared" si="0"/>
         <v>4061983.8095</v>
@@ -4409,7 +4411,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A50" s="2">
         <f t="shared" si="0"/>
         <v>4061977.4594999999</v>
@@ -4452,7 +4454,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A51" s="2">
         <f t="shared" ref="A51:A99" si="14">D51</f>
         <v>4061977.4594999999</v>
@@ -4495,7 +4497,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="52" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A52" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4538,7 +4540,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="53" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A53" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4581,7 +4583,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="54" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A54" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4624,7 +4626,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A55" s="2">
         <f t="shared" si="14"/>
         <v>4061969.5795</v>
@@ -4667,7 +4669,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A56" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4710,7 +4712,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A57" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4753,7 +4755,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A58" s="2">
         <f t="shared" si="14"/>
         <v>4061958.2595000002</v>
@@ -4796,7 +4798,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A59" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4839,7 +4841,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A60" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4882,7 +4884,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A61" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4925,7 +4927,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A62" s="2">
         <f t="shared" si="14"/>
         <v>4061964.9994999999</v>
@@ -4968,7 +4970,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A63" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5011,7 +5013,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A64" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5054,7 +5056,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A65" s="2">
         <f t="shared" si="14"/>
         <v>4061956.1294999998</v>
@@ -5097,7 +5099,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A66" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5140,7 +5142,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A67" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5183,7 +5185,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A68" s="2">
         <f t="shared" si="14"/>
         <v>4061956.3195000002</v>
@@ -5226,7 +5228,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A69" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5269,7 +5271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A70" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5312,7 +5314,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A71" s="2">
         <f t="shared" si="14"/>
         <v>4061943.1894999999</v>
@@ -5355,7 +5357,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A72" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5398,7 +5400,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A73" s="2">
         <f t="shared" si="14"/>
         <v>4061940.8295</v>
@@ -5441,7 +5443,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A74" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5484,7 +5486,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A75" s="2">
         <f t="shared" si="14"/>
         <v>4061939.6595000001</v>
@@ -5527,7 +5529,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A76" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5570,7 +5572,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A77" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5613,7 +5615,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A78" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5656,7 +5658,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A79" s="2">
         <f t="shared" si="14"/>
         <v>4061936.5595</v>
@@ -5699,7 +5701,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A80" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5742,7 +5744,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="81" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A81" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5785,7 +5787,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A82" s="2">
         <f t="shared" si="14"/>
         <v>4061929.1795000001</v>
@@ -5828,7 +5830,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A83" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5871,7 +5873,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="84" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A84" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5914,7 +5916,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A85" s="2">
         <f t="shared" si="14"/>
         <v>4061928.4194999998</v>
@@ -5957,7 +5959,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A86" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6000,7 +6002,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A87" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6043,7 +6045,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A88" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6086,7 +6088,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A89" s="2">
         <f t="shared" si="14"/>
         <v>4061924.1894999999</v>
@@ -6129,7 +6131,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A90" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6172,7 +6174,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A91" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6215,7 +6217,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A92" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6258,7 +6260,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="93" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A93" s="2">
         <f t="shared" si="14"/>
         <v>4062027.5194999999</v>
@@ -6301,7 +6303,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A94" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6344,7 +6346,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A95" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6387,7 +6389,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A96" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6430,7 +6432,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="97" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A97" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6473,7 +6475,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="98" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A98" s="2">
         <f t="shared" si="14"/>
         <v>4062018.0595</v>
@@ -6516,7 +6518,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="99" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A99" s="2">
         <f t="shared" si="14"/>
         <v>4062008.0395</v>
@@ -6559,7 +6561,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="100" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A100" s="2">
         <f t="shared" ref="A100:A150" si="19">D100</f>
         <v>4062008.0395</v>
@@ -6602,7 +6604,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="101" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A101" s="2">
         <f t="shared" si="19"/>
         <v>4062008.0395</v>
@@ -6645,7 +6647,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="102" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A102" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6688,7 +6690,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="103" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A103" s="2">
         <f t="shared" si="19"/>
         <v>4062022.8695</v>
@@ -6731,7 +6733,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="104" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A104" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6774,7 +6776,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A105" s="2">
         <f t="shared" si="19"/>
         <v>4062022.4194999998</v>
@@ -6817,7 +6819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A106" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6860,7 +6862,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="107" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A107" s="2">
         <f t="shared" si="19"/>
         <v>4062018.5395</v>
@@ -6903,7 +6905,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="108" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A108" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6946,7 +6948,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="109" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A109" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -6989,7 +6991,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="110" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A110" s="2">
         <f t="shared" si="19"/>
         <v>4062005.1195</v>
@@ -7032,7 +7034,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="111" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A111" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7075,7 +7077,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="112" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A112" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7118,7 +7120,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="113" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A113" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7161,7 +7163,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="114" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A114" s="2">
         <f t="shared" si="19"/>
         <v>4062013.6894999999</v>
@@ -7204,7 +7206,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="115" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A115" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7247,7 +7249,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="116" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A116" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7290,7 +7292,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="117" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A117" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7333,7 +7335,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="118" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A118" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7376,7 +7378,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="119" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A119" s="2">
         <f t="shared" si="19"/>
         <v>4061999.8195000002</v>
@@ -7419,7 +7421,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="120" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="120" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A120" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7462,7 +7464,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="121" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A121" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7505,7 +7507,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="122" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A122" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7548,7 +7550,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="123" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A123" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7591,7 +7593,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="124" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A124" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7634,7 +7636,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="125" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="125" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A125" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7677,7 +7679,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="126" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A126" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7720,7 +7722,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="127" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="127" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A127" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7763,7 +7765,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="128" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A128" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7806,7 +7808,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="129" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A129" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7849,7 +7851,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="130" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A130" s="2">
         <f t="shared" si="19"/>
         <v>4062007.7595000002</v>
@@ -7892,7 +7894,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="131" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A131" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7935,7 +7937,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="132" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A132" s="2">
         <f t="shared" si="19"/>
         <v>4061998.2294999999</v>
@@ -7978,7 +7980,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="133" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A133" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8021,7 +8023,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="134" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A134" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8064,7 +8066,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="135" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A135" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8107,7 +8109,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="136" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A136" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8150,7 +8152,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="137" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A137" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8187,13 +8189,13 @@
         <v>2.3999999999999986</v>
       </c>
       <c r="L137" s="1" t="s">
-        <v>88</v>
+        <v>26</v>
       </c>
       <c r="M137" s="2">
         <v>12</v>
       </c>
     </row>
-    <row r="138" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="138" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A138" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8236,7 +8238,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="139" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A139" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8279,7 +8281,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="140" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="140" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A140" s="2">
         <f t="shared" si="19"/>
         <v>4061998.9895000001</v>
@@ -8322,7 +8324,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="141" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A141" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8365,7 +8367,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="142" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A142" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8408,7 +8410,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="143" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A143" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8451,7 +8453,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="144" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="144" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A144" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8494,7 +8496,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="145" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A145" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8537,7 +8539,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="146" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="146" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A146" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8580,7 +8582,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="147" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="147" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A147" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8623,7 +8625,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="148" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="148" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A148" s="2">
         <f t="shared" si="19"/>
         <v>4061985.9394999999</v>
@@ -8666,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="149" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="149" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A149" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8709,7 +8711,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="150" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="150" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A150" s="2">
         <f t="shared" si="19"/>
         <v>4061974.2595000002</v>
@@ -8752,7 +8754,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="151" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="151" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A151" s="2">
         <f t="shared" ref="A151:A205" si="24">D151</f>
         <v>4061974.2595000002</v>
@@ -8795,7 +8797,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="152" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="152" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A152" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8838,7 +8840,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="153" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="153" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A153" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8881,7 +8883,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="154" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="154" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A154" s="2">
         <f t="shared" si="24"/>
         <v>4061974.2595000002</v>
@@ -8924,7 +8926,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="155" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="155" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A155" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -8967,7 +8969,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="156" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="156" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A156" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9010,7 +9012,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="157" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="157" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A157" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9053,7 +9055,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="158" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="158" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A158" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9096,7 +9098,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="159" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="159" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A159" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9139,7 +9141,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="160" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="160" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A160" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9182,7 +9184,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="161" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="161" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A161" s="2">
         <f t="shared" si="24"/>
         <v>4061960.5095000002</v>
@@ -9225,7 +9227,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="162" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="162" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A162" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9268,7 +9270,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="163" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="163" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A163" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9311,7 +9313,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="164" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="164" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A164" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9354,7 +9356,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="165" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="165" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A165" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9397,7 +9399,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="166" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="166" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A166" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9440,7 +9442,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="167" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="167" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A167" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9483,7 +9485,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="168" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="168" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A168" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9526,7 +9528,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="169" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="169" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A169" s="2">
         <f t="shared" si="24"/>
         <v>4061978.9095000001</v>
@@ -9569,7 +9571,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="170" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="170" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A170" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9612,7 +9614,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="171" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="171" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A171" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9655,7 +9657,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="172" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="172" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A172" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9698,7 +9700,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="173" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="173" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A173" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9741,7 +9743,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="174" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="174" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A174" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9784,7 +9786,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="175" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="175" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A175" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9827,7 +9829,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="176" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="176" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A176" s="2">
         <f t="shared" si="24"/>
         <v>4061964.8794999998</v>
@@ -9870,7 +9872,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="177" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="177" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A177" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9913,7 +9915,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="178" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="178" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A178" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9956,7 +9958,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="179" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="179" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A179" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -9999,7 +10001,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="180" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="180" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A180" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10042,7 +10044,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="181" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="181" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A181" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10085,7 +10087,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="182" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="182" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A182" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10128,7 +10130,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="183" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="183" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A183" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10171,7 +10173,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="184" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="184" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A184" s="2">
         <f t="shared" si="24"/>
         <v>4061956.0894999998</v>
@@ -10214,7 +10216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="185" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="185" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A185" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10257,7 +10259,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="186" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="186" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A186" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10300,7 +10302,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="187" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="187" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A187" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10343,7 +10345,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="188" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="188" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A188" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10386,7 +10388,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="189" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="189" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A189" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10429,7 +10431,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="190" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="190" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A190" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10472,7 +10474,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="191" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="191" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A191" s="2">
         <f t="shared" si="24"/>
         <v>4061941.5795</v>
@@ -10515,7 +10517,7 @@
         <v>19</v>
       </c>
     </row>
-    <row r="192" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="192" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A192" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10558,7 +10560,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="193" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="193" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A193" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10601,7 +10603,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="194" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="194" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A194" s="2">
         <f t="shared" si="24"/>
         <v>4061982.7195000001</v>
@@ -10644,7 +10646,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="195" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="195" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A195" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10687,7 +10689,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="196" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="196" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A196" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10730,7 +10732,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="197" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="197" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A197" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10773,7 +10775,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="198" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="198" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A198" s="2">
         <f t="shared" si="24"/>
         <v>4061979.6294999998</v>
@@ -10816,7 +10818,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="199" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="199" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A199" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10859,7 +10861,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="200" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="200" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A200" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10902,7 +10904,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="201" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="201" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A201" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10945,7 +10947,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="202" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="202" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A202" s="2">
         <f t="shared" si="24"/>
         <v>4061966.6694999998</v>
@@ -10988,7 +10990,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="203" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="203" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A203" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11031,7 +11033,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="204" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="204" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A204" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11074,7 +11076,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="205" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="205" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A205" s="2">
         <f t="shared" si="24"/>
         <v>4061936.1795000001</v>
@@ -11117,7 +11119,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="206" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="206" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A206" s="2">
         <f t="shared" ref="A206:A258" si="29">D206</f>
         <v>4061936.1795000001</v>
@@ -11160,7 +11162,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="207" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="207" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A207" s="2">
         <f t="shared" si="29"/>
         <v>4061936.1795000001</v>
@@ -11203,7 +11205,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="208" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="208" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A208" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11246,7 +11248,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="209" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="209" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A209" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11289,7 +11291,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="210" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="210" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A210" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11332,7 +11334,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="211" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="211" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A211" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11375,7 +11377,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="212" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="212" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A212" s="2">
         <f t="shared" si="29"/>
         <v>4061960.3195000002</v>
@@ -11418,7 +11420,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="213" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="213" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A213" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11461,7 +11463,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="214" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="214" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A214" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11504,7 +11506,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="215" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="215" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A215" s="2">
         <f t="shared" si="29"/>
         <v>4061948.9794999999</v>
@@ -11547,7 +11549,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="216" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="216" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A216" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11590,7 +11592,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="217" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="217" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A217" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11633,7 +11635,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="218" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="218" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A218" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11676,7 +11678,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="219" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="219" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A219" s="2">
         <f t="shared" si="29"/>
         <v>4061952.9194999998</v>
@@ -11719,7 +11721,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="220" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="220" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A220" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11762,7 +11764,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="221" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="221" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A221" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11805,7 +11807,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="222" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="222" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A222" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11848,7 +11850,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="223" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="223" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A223" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11891,7 +11893,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="224" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="224" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A224" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11934,7 +11936,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="225" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="225" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A225" s="2">
         <f t="shared" si="29"/>
         <v>4061937.9194999998</v>
@@ -11977,7 +11979,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="226" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="226" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A226" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12020,7 +12022,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="227" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="227" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A227" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12063,7 +12065,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="228" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="228" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A228" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12106,7 +12108,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="229" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="229" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A229" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12149,7 +12151,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="230" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="230" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A230" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12192,7 +12194,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="231" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="231" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A231" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12235,7 +12237,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="232" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="232" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A232" s="2">
         <f t="shared" si="29"/>
         <v>4061934.6395</v>
@@ -12278,7 +12280,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="233" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="233" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A233" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12321,7 +12323,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="234" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="234" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A234" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12364,7 +12366,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="235" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="235" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A235" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12407,7 +12409,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="236" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="236" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A236" s="2">
         <f t="shared" si="29"/>
         <v>4061943.7395000001</v>
@@ -12450,7 +12452,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="237" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="237" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A237" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12493,7 +12495,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="238" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="238" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A238" s="2">
         <f t="shared" si="29"/>
         <v>4061948.3695</v>
@@ -12536,7 +12538,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="239" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="239" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A239" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12579,7 +12581,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="240" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="240" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A240" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12622,7 +12624,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="241" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="241" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A241" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12665,7 +12667,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="242" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="242" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A242" s="2">
         <f t="shared" si="29"/>
         <v>4061940.2395000001</v>
@@ -12708,7 +12710,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="243" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="243" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A243" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12751,7 +12753,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="244" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="244" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A244" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12794,7 +12796,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="245" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="245" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A245" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12837,7 +12839,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="246" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="246" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A246" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12880,7 +12882,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="247" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="247" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A247" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12923,7 +12925,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="248" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="248" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A248" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -12966,7 +12968,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="249" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="249" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A249" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13009,7 +13011,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="250" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="250" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A250" s="2">
         <f t="shared" si="29"/>
         <v>4061931.8295</v>
@@ -13052,7 +13054,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="251" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="251" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A251" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13095,7 +13097,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="252" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="252" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A252" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13138,7 +13140,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="253" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="253" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A253" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13181,7 +13183,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="254" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="254" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A254" s="2">
         <f t="shared" si="29"/>
         <v>4062021.6595000001</v>
@@ -13224,7 +13226,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="255" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="255" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A255" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13267,7 +13269,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="256" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="256" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A256" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13310,7 +13312,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="257" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="257" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A257" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13353,7 +13355,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="258" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="258" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A258" s="2">
         <f t="shared" si="29"/>
         <v>4062002.6294999998</v>
@@ -13396,7 +13398,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="259" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="259" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A259" s="2">
         <f t="shared" ref="A259:A310" si="37">D259</f>
         <v>4062002.6294999998</v>
@@ -13439,7 +13441,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="260" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="260" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A260" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13482,7 +13484,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="261" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="261" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A261" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13525,7 +13527,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="262" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="262" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A262" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13568,7 +13570,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="263" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="263" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A263" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13611,7 +13613,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="264" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="264" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A264" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13654,7 +13656,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="265" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="265" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A265" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13697,7 +13699,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="266" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="266" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A266" s="2">
         <f t="shared" si="37"/>
         <v>4061983.4594999999</v>
@@ -13740,7 +13742,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="267" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="267" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A267" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13783,7 +13785,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="268" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="268" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A268" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13826,7 +13828,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="269" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="269" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A269" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13869,7 +13871,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="270" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="270" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A270" s="2">
         <f t="shared" si="37"/>
         <v>4061962.7494999999</v>
@@ -13912,7 +13914,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="271" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="271" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A271" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -13955,7 +13957,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="272" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="272" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A272" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -13998,7 +14000,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="273" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="273" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A273" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14041,7 +14043,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="274" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="274" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A274" s="2">
         <f t="shared" si="37"/>
         <v>4062014.7895</v>
@@ -14084,7 +14086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="275" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="275" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A275" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14127,7 +14129,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="276" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="276" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A276" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14170,7 +14172,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="277" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="277" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A277" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14213,7 +14215,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="278" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="278" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A278" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14256,7 +14258,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="279" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="279" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A279" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14299,7 +14301,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="280" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="280" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A280" s="2">
         <f t="shared" si="37"/>
         <v>4061994.1595000001</v>
@@ -14342,7 +14344,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="281" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="281" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A281" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14385,7 +14387,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="282" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="282" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A282" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14428,7 +14430,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="283" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="283" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A283" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14471,7 +14473,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="284" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="284" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A284" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14514,7 +14516,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="285" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="285" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A285" s="2">
         <f t="shared" si="37"/>
         <v>4061974.5495000002</v>
@@ -14557,7 +14559,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="286" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="286" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A286" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14600,7 +14602,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="287" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="287" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A287" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14643,7 +14645,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="288" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="288" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A288" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14686,7 +14688,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="289" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="289" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A289" s="2">
         <f t="shared" si="37"/>
         <v>4061955.5295000002</v>
@@ -14729,7 +14731,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="290" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="290" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A290" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14772,7 +14774,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="291" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="291" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A291" s="2">
         <f t="shared" si="37"/>
         <v>4062004.6995000001</v>
@@ -14815,7 +14817,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="292" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="292" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A292" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14858,7 +14860,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="293" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="293" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A293" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14901,7 +14903,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="294" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="294" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A294" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14944,7 +14946,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="295" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="295" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A295" s="2">
         <f t="shared" si="37"/>
         <v>4061982.1494999998</v>
@@ -14987,7 +14989,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="296" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="296" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A296" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15030,7 +15032,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="297" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="297" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A297" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15073,7 +15075,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="298" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="298" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A298" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15116,7 +15118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="299" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="299" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A299" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15159,7 +15161,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="300" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="300" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A300" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15202,7 +15204,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="301" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="301" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A301" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0395</v>
@@ -15245,7 +15247,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="302" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="302" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A302" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15288,7 +15290,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="303" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="303" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A303" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15331,7 +15333,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="304" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="304" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A304" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15374,7 +15376,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="305" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="305" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A305" s="2">
         <f t="shared" si="37"/>
         <v>4061981.6894999999</v>
@@ -15417,7 +15419,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="306" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="306" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A306" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15460,7 +15462,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="307" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="307" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A307" s="2">
         <f t="shared" si="37"/>
         <v>4061974.0995</v>
@@ -15503,7 +15505,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="308" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="308" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A308" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15546,7 +15548,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="309" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="309" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A309" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15589,7 +15591,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="310" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="310" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A310" s="2">
         <f t="shared" si="37"/>
         <v>4061957.7195000001</v>
@@ -15632,7 +15634,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="311" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="311" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A311" s="2">
         <f t="shared" ref="A311:A363" si="42">D311</f>
         <v>4061952.5595</v>
@@ -15675,7 +15677,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="312" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="312" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A312" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15718,7 +15720,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="313" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="313" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A313" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15761,7 +15763,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="314" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="314" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A314" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15804,7 +15806,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="315" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="315" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A315" s="2">
         <f t="shared" si="42"/>
         <v>4061952.5595</v>
@@ -15847,7 +15849,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="316" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="316" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A316" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15890,7 +15892,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="317" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="317" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A317" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15933,7 +15935,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="318" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="318" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A318" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -15976,7 +15978,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="319" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="319" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A319" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16019,7 +16021,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="320" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="320" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A320" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16062,7 +16064,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="321" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="321" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A321" s="2">
         <f t="shared" si="42"/>
         <v>4061901.7694999999</v>
@@ -16105,7 +16107,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="322" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="322" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A322" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16148,7 +16150,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="323" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="323" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A323" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16191,7 +16193,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="324" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="324" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A324" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16234,7 +16236,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="325" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="325" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A325" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16277,7 +16279,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="326" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="326" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A326" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16320,7 +16322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="327" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="327" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A327" s="2">
         <f t="shared" si="42"/>
         <v>4061905.8394999998</v>
@@ -16363,7 +16365,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="328" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="328" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A328" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16406,7 +16408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="329" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="329" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A329" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16449,7 +16451,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="330" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="330" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A330" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16492,7 +16494,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="331" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="331" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A331" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16535,7 +16537,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="332" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="332" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A332" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16578,7 +16580,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="333" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="333" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A333" s="2">
         <f t="shared" si="42"/>
         <v>4061910.7494999999</v>
@@ -16621,7 +16623,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="334" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="334" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A334" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16664,7 +16666,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="335" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="335" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A335" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16707,7 +16709,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="336" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="336" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A336" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16750,7 +16752,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="337" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A337" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16793,7 +16795,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="338" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A338" s="2">
         <f t="shared" si="42"/>
         <v>4061913.2294999999</v>
@@ -16836,7 +16838,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="339" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A339" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16879,7 +16881,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="340" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A340" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16922,7 +16924,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="341" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A341" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -16965,7 +16967,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="342" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A342" s="2">
         <f t="shared" si="42"/>
         <v>4061902.0695000002</v>
@@ -17008,7 +17010,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="343" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A343" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17051,7 +17053,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="344" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="344" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A344" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17094,7 +17096,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="345" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="345" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A345" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17137,7 +17139,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="346" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="346" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A346" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17180,7 +17182,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="347" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="347" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A347" s="2">
         <f t="shared" si="42"/>
         <v>4061914.4155999999</v>
@@ -17223,7 +17225,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="348" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="348" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A348" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17266,7 +17268,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="349" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="349" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A349" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17309,7 +17311,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="350" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="350" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A350" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17352,7 +17354,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="351" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="351" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A351" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17395,7 +17397,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="352" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="352" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A352" s="2">
         <f t="shared" si="42"/>
         <v>4061913.8095</v>
@@ -17438,7 +17440,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="353" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="353" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A353" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17481,7 +17483,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="354" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="354" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A354" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17524,7 +17526,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="355" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="355" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A355" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17567,7 +17569,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="356" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="356" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A356" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17610,7 +17612,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="357" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="357" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A357" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17653,7 +17655,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="358" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="358" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A358" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17696,7 +17698,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="359" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="359" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A359" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17739,7 +17741,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="360" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="360" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A360" s="2">
         <f t="shared" si="42"/>
         <v>4061887.4495000001</v>
@@ -17782,7 +17784,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="361" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="361" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A361" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17825,7 +17827,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="362" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="362" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A362" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17868,7 +17870,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="363" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="363" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A363" s="2">
         <f t="shared" si="42"/>
         <v>4061898.9794999999</v>
@@ -17911,7 +17913,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="364" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="364" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A364" s="2">
         <f t="shared" ref="A364:A418" si="50">D364</f>
         <v>4061887.5295000002</v>
@@ -17954,7 +17956,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="365" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="365" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A365" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -17997,7 +17999,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="366" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="366" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A366" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18040,7 +18042,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="367" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="367" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A367" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18083,7 +18085,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="368" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="368" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A368" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18126,7 +18128,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="369" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="369" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A369" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18169,7 +18171,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="370" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="370" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A370" s="2">
         <f t="shared" si="50"/>
         <v>4061887.5295000002</v>
@@ -18212,7 +18214,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="371" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="371" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A371" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18255,7 +18257,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="372" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="372" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A372" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18298,7 +18300,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="373" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="373" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A373" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18341,7 +18343,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="374" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="374" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A374" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18384,7 +18386,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="375" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="375" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A375" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18427,7 +18429,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="376" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="376" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A376" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18470,7 +18472,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="377" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="377" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A377" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18513,7 +18515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="378" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="378" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A378" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18556,7 +18558,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="379" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="379" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A379" s="2">
         <f t="shared" si="50"/>
         <v>4061889.9895000001</v>
@@ -18599,7 +18601,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="380" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="380" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A380" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18642,7 +18644,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="381" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="381" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A381" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18685,7 +18687,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="382" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="382" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A382" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18728,7 +18730,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="383" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="383" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A383" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18771,7 +18773,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="384" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="384" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A384" s="2">
         <f t="shared" si="50"/>
         <v>4061894.4095000001</v>
@@ -18814,7 +18816,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="385" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="385" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A385" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18857,7 +18859,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="386" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="386" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A386" s="2">
         <f t="shared" si="50"/>
         <v>4061907.4594999999</v>
@@ -18900,7 +18902,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="387" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="387" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A387" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18943,7 +18945,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="388" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="388" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A388" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -18986,7 +18988,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="389" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="389" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A389" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19029,7 +19031,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="390" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="390" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A390" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19072,7 +19074,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="391" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="391" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A391" s="2">
         <f t="shared" si="50"/>
         <v>4061902.9194999998</v>
@@ -19115,7 +19117,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="392" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="392" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A392" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19158,7 +19160,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="393" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="393" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A393" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19201,7 +19203,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="394" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="394" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A394" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19244,7 +19246,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="395" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="395" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A395" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19287,7 +19289,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="396" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="396" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A396" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19330,7 +19332,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="397" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="397" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A397" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19373,7 +19375,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="398" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="398" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A398" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19416,7 +19418,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="399" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="399" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A399" s="2">
         <f t="shared" si="50"/>
         <v>4061914.0795</v>
@@ -19459,7 +19461,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="400" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="400" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A400" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19502,7 +19504,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="401" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="401" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A401" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19545,7 +19547,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="402" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="402" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A402" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19588,7 +19590,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="403" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="403" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A403" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19631,7 +19633,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="404" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="404" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A404" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19674,7 +19676,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="405" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="405" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A405" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19717,7 +19719,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="406" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="406" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A406" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19760,7 +19762,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="407" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="407" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A407" s="2">
         <f t="shared" si="50"/>
         <v>4061908.5194999999</v>
@@ -19803,7 +19805,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="408" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="408" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A408" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19846,7 +19848,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="409" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="409" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A409" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19889,7 +19891,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="410" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="410" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A410" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19932,7 +19934,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="411" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="411" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A411" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -19975,7 +19977,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="412" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="412" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A412" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20018,7 +20020,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="413" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="413" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A413" s="2">
         <f t="shared" si="50"/>
         <v>4061903.6395</v>
@@ -20061,7 +20063,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="414" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="414" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A414" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20104,7 +20106,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="415" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="415" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A415" s="2">
         <f t="shared" si="50"/>
         <v>4061893.4495000001</v>
@@ -20147,7 +20149,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="416" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="416" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A416" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20190,7 +20192,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="417" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="417" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A417" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20233,7 +20235,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="418" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="418" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A418" s="2">
         <f t="shared" si="50"/>
         <v>4061900.3895</v>
@@ -20276,7 +20278,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="419" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="419" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A419" s="2">
         <f t="shared" ref="A419:A481" si="58">D419</f>
         <v>4061900.3895</v>
@@ -20319,7 +20321,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="420" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="420" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A420" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20362,7 +20364,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="421" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="421" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A421" s="2">
         <f t="shared" si="58"/>
         <v>4061900.3895</v>
@@ -20405,7 +20407,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="422" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="422" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A422" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20448,7 +20450,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="423" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="423" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A423" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20491,7 +20493,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="424" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="424" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A424" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20534,7 +20536,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="425" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="425" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A425" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20577,7 +20579,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="426" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="426" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A426" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20620,7 +20622,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="427" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="427" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A427" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20663,7 +20665,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="428" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="428" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A428" s="2">
         <f t="shared" si="58"/>
         <v>4061897.7694999999</v>
@@ -20706,7 +20708,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="429" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="429" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A429" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20749,7 +20751,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="430" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="430" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A430" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20792,7 +20794,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="431" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="431" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A431" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20835,7 +20837,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="432" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="432" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A432" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20878,7 +20880,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="433" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="433" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A433" s="2">
         <f t="shared" si="58"/>
         <v>4061901.5894999998</v>
@@ -20921,7 +20923,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="435" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="435" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A435" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20943,7 +20945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="436" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="436" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A436" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -20980,7 +20982,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="437" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="437" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A437" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21017,7 +21019,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="438" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="438" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A438" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21054,7 +21056,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="439" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="439" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A439" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21091,7 +21093,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="440" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="440" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A440" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21128,7 +21130,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="441" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="441" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A441" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21165,7 +21167,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="442" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="442" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A442" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21202,7 +21204,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="443" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="443" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A443" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21224,7 +21226,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="444" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="444" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A444" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21261,7 +21263,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="445" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="445" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A445" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21298,7 +21300,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="446" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="446" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A446" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21335,7 +21337,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="447" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="447" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A447" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21372,7 +21374,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="448" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="448" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A448" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21409,7 +21411,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="449" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="449" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A449" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21446,7 +21448,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="450" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="450" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A450" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21483,7 +21485,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="451" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="451" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A451" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21505,7 +21507,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="452" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="452" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A452" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21542,7 +21544,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="453" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="453" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A453" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21579,7 +21581,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="454" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="454" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A454" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21601,7 +21603,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="455" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="455" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A455" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21638,7 +21640,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="456" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="456" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A456" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21675,7 +21677,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="457" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="457" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A457" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21712,7 +21714,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="458" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="458" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A458" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21749,7 +21751,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="459" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="459" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A459" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21786,7 +21788,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="460" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="460" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A460" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21823,7 +21825,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="461" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="461" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A461" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21860,7 +21862,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="462" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="462" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A462" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21897,7 +21899,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="463" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="463" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A463" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21919,7 +21921,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="464" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="464" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A464" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21956,7 +21958,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="465" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="465" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A465" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -21993,7 +21995,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="466" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="466" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A466" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22030,7 +22032,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="467" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="467" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A467" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22067,7 +22069,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="468" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="468" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A468" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22089,7 +22091,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="469" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="469" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A469" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22126,7 +22128,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="470" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="470" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A470" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22163,7 +22165,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="471" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="471" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A471" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22200,7 +22202,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="472" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="472" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A472" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22237,7 +22239,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="473" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="473" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A473" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22274,7 +22276,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="474" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="474" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A474" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22296,7 +22298,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="475" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="475" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A475" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22333,7 +22335,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="476" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="476" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A476" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22370,7 +22372,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="477" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="477" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A477" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22407,7 +22409,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="478" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="478" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A478" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22429,7 +22431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="479" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="479" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A479" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22466,7 +22468,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="480" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="480" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A480" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22503,7 +22505,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="481" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="481" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A481" s="2">
         <f t="shared" si="58"/>
         <v>0</v>
@@ -22540,7 +22542,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="482" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="482" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A482" s="2">
         <f t="shared" ref="A482:A545" si="63">D482</f>
         <v>0</v>
@@ -22577,7 +22579,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="483" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="483" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A483" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22614,7 +22616,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="484" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="484" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A484" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22651,7 +22653,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="485" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="485" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A485" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22673,7 +22675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="486" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="486" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A486" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22710,7 +22712,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="487" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="487" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A487" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22747,7 +22749,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="488" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="488" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A488" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22784,7 +22786,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="489" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="489" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A489" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22821,7 +22823,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="490" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="490" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A490" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22843,7 +22845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="491" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="491" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A491" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22880,7 +22882,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="492" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="492" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A492" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22917,7 +22919,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="493" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="493" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A493" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22954,7 +22956,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="494" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="494" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A494" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -22991,7 +22993,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="495" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="495" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A495" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23028,7 +23030,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="496" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="496" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A496" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23050,7 +23052,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="497" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="497" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A497" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23087,7 +23089,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="498" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="498" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A498" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23124,7 +23126,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="499" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="499" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A499" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23161,7 +23163,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="500" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="500" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A500" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23198,7 +23200,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="501" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="501" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A501" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23235,7 +23237,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="502" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="502" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A502" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23272,7 +23274,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="503" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="503" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A503" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23309,7 +23311,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="504" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="504" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A504" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23346,7 +23348,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="505" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="505" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A505" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23368,7 +23370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="506" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="506" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A506" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23405,7 +23407,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="507" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="507" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A507" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23442,7 +23444,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="508" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="508" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A508" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23464,7 +23466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="509" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="509" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A509" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23501,7 +23503,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="510" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="510" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A510" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23538,7 +23540,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="511" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="511" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A511" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23575,7 +23577,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="512" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="512" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A512" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23612,7 +23614,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="513" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="513" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A513" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23649,7 +23651,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="514" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="514" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A514" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23686,7 +23688,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="515" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="515" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A515" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23708,7 +23710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="516" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="516" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A516" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23745,7 +23747,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="517" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="517" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A517" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23782,7 +23784,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="518" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="518" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A518" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23819,7 +23821,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="519" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="519" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A519" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23856,7 +23858,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="520" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="520" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A520" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23893,7 +23895,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="521" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="521" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A521" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23915,7 +23917,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="522" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="522" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A522" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23952,7 +23954,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="523" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="523" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A523" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -23989,7 +23991,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="524" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="524" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A524" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24026,7 +24028,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="525" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="525" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A525" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24063,7 +24065,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="526" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="526" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A526" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24100,7 +24102,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="527" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="527" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A527" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24137,7 +24139,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="528" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="528" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A528" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24159,7 +24161,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="529" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="529" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A529" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24196,7 +24198,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="530" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="530" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A530" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24233,7 +24235,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="531" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="531" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A531" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24270,7 +24272,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="532" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="532" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A532" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24292,7 +24294,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="533" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="533" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A533" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24329,7 +24331,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="534" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="534" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A534" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24366,7 +24368,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="535" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="535" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A535" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24388,7 +24390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="536" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="536" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A536" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24425,7 +24427,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="537" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="537" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A537" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24462,7 +24464,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="538" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="538" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A538" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24499,7 +24501,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="539" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="539" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A539" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24521,7 +24523,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="540" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="540" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A540" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24558,7 +24560,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="541" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="541" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A541" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24595,7 +24597,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="542" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="542" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A542" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24632,7 +24634,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="543" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="543" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A543" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24669,7 +24671,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="544" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="544" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A544" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24691,7 +24693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="545" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="545" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A545" s="2">
         <f t="shared" si="63"/>
         <v>0</v>
@@ -24728,7 +24730,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="546" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="546" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A546" s="2">
         <f t="shared" ref="A546:A609" si="68">D546</f>
         <v>0</v>
@@ -24765,7 +24767,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="547" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="547" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A547" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24802,7 +24804,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="548" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="548" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A548" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24839,7 +24841,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="549" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="549" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A549" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24861,7 +24863,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="550" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="550" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A550" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24898,7 +24900,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="551" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="551" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A551" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24935,7 +24937,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="552" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="552" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A552" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -24972,7 +24974,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="553" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="553" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A553" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25009,7 +25011,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="554" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="554" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A554" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25046,7 +25048,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="555" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="555" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A555" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25083,7 +25085,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="556" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="556" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A556" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25105,7 +25107,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="557" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="557" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A557" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25142,7 +25144,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="558" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="558" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A558" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25179,7 +25181,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="559" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="559" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A559" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25216,7 +25218,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="560" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="560" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A560" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25253,7 +25255,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="561" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="561" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A561" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25290,7 +25292,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="562" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="562" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A562" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25312,7 +25314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="563" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="563" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A563" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25349,7 +25351,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="564" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="564" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A564" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25386,7 +25388,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="565" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="565" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A565" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25423,7 +25425,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="566" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="566" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A566" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25460,7 +25462,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="567" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="567" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A567" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25497,7 +25499,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="568" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="568" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A568" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25534,7 +25536,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="569" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="569" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A569" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25571,7 +25573,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="570" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="570" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A570" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25608,7 +25610,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="571" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="571" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A571" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25630,7 +25632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="572" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="572" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A572" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25667,7 +25669,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="573" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="573" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A573" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25704,7 +25706,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="574" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="574" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A574" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25741,7 +25743,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="575" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="575" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A575" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25778,7 +25780,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="576" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="576" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A576" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25815,7 +25817,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="577" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="577" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A577" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25852,7 +25854,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="578" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="578" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A578" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25889,7 +25891,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="579" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="579" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A579" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25926,7 +25928,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="580" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="580" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A580" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25948,7 +25950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="581" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="581" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A581" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -25985,7 +25987,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="582" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="582" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A582" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26022,7 +26024,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="583" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="583" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A583" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26059,7 +26061,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="584" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="584" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A584" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26096,7 +26098,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="585" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="585" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A585" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26118,7 +26120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="586" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="586" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A586" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26155,7 +26157,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="587" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="587" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A587" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26192,7 +26194,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="588" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="588" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A588" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26229,7 +26231,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="589" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="589" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A589" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26266,7 +26268,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="590" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="590" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A590" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26303,7 +26305,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="591" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="591" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A591" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26340,7 +26342,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="592" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="592" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A592" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26377,7 +26379,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="593" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="593" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A593" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26399,7 +26401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="594" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="594" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A594" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26436,7 +26438,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="595" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="595" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A595" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26473,7 +26475,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="596" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="596" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A596" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26510,7 +26512,7 @@
         <v>111</v>
       </c>
     </row>
-    <row r="597" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="597" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A597" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26532,7 +26534,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="598" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="598" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A598" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26569,7 +26571,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="599" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="599" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A599" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26606,7 +26608,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="600" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="600" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A600" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26643,7 +26645,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="601" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="601" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A601" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26680,7 +26682,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="602" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="602" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A602" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26717,7 +26719,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="603" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="603" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A603" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26754,7 +26756,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="604" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="604" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A604" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26791,7 +26793,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="605" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="605" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A605" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26828,7 +26830,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="606" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="606" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A606" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26865,7 +26867,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="607" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="607" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A607" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26902,7 +26904,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="608" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="608" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A608" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26924,7 +26926,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="609" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="609" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A609" s="2">
         <f t="shared" si="68"/>
         <v>0</v>
@@ -26961,7 +26963,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="610" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="610" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A610" s="2">
         <f t="shared" ref="A610:A673" si="73">D610</f>
         <v>0</v>
@@ -26998,7 +27000,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="611" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="611" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A611" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27035,7 +27037,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="612" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="612" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A612" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27072,7 +27074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="613" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="613" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A613" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27109,7 +27111,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="614" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="614" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A614" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27146,7 +27148,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="615" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="615" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A615" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27183,7 +27185,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="616" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="616" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A616" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27220,7 +27222,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="617" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="617" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A617" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27257,7 +27259,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="618" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="618" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A618" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27294,7 +27296,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="619" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="619" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A619" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27316,7 +27318,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="620" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="620" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A620" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27353,7 +27355,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="621" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="621" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A621" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27390,7 +27392,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="622" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="622" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A622" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27427,7 +27429,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="623" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="623" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A623" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27464,7 +27466,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="624" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="624" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A624" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27501,7 +27503,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="625" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="625" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A625" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27538,7 +27540,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="626" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="626" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A626" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27575,7 +27577,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="627" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="627" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A627" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27612,7 +27614,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="628" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="628" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A628" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27649,7 +27651,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="629" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="629" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A629" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27671,7 +27673,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="630" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="630" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A630" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27708,7 +27710,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="631" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="631" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A631" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27745,7 +27747,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="632" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="632" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A632" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27767,7 +27769,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="633" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="633" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A633" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27804,7 +27806,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="634" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="634" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A634" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27841,7 +27843,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="635" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="635" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A635" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27878,7 +27880,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="636" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="636" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A636" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27915,7 +27917,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="637" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="637" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A637" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27952,7 +27954,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="638" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="638" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A638" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -27989,7 +27991,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="639" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="639" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A639" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28026,7 +28028,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="640" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="640" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A640" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28048,7 +28050,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="641" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="641" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A641" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28085,7 +28087,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="642" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="642" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A642" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28122,7 +28124,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="643" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="643" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A643" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28159,7 +28161,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="644" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="644" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A644" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28196,7 +28198,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="645" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="645" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A645" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28233,7 +28235,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="646" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="646" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A646" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28270,7 +28272,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="647" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="647" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A647" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28307,7 +28309,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="648" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="648" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A648" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28329,7 +28331,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="649" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="649" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A649" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28366,7 +28368,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="650" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="650" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A650" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28403,7 +28405,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="651" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="651" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A651" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28440,7 +28442,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="652" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="652" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A652" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28477,7 +28479,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="653" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="653" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A653" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28514,7 +28516,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="654" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="654" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A654" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28551,7 +28553,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="655" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="655" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A655" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28588,7 +28590,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="656" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="656" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A656" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28625,7 +28627,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="657" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="657" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A657" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28647,7 +28649,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="658" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="658" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A658" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28684,7 +28686,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="659" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="659" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A659" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28721,7 +28723,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="660" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="660" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A660" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28758,7 +28760,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="661" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="661" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A661" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28795,7 +28797,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="662" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="662" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A662" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28832,7 +28834,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="663" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="663" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A663" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28869,7 +28871,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="664" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="664" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A664" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28906,7 +28908,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="665" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="665" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A665" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28943,7 +28945,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="666" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="666" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A666" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -28980,7 +28982,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="667" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="667" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A667" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29002,7 +29004,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="668" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="668" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A668" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29039,7 +29041,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="669" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="669" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A669" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29076,7 +29078,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="670" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="670" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A670" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29113,7 +29115,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="671" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="671" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A671" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29150,7 +29152,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="672" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="672" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A672" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29187,7 +29189,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="673" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="673" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A673" s="2">
         <f t="shared" si="73"/>
         <v>0</v>
@@ -29224,7 +29226,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="674" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="674" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A674" s="2">
         <f t="shared" ref="A674:A737" si="78">D674</f>
         <v>0</v>
@@ -29261,7 +29263,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="675" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="675" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A675" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29298,7 +29300,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="676" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="676" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A676" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29335,7 +29337,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="677" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="677" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A677" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29357,7 +29359,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="678" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="678" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A678" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29394,7 +29396,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="679" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="679" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A679" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29431,7 +29433,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="680" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="680" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A680" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29468,7 +29470,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="681" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="681" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A681" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29505,7 +29507,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="682" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="682" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A682" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29542,7 +29544,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="683" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="683" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A683" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29579,7 +29581,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="684" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="684" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A684" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29616,7 +29618,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="685" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="685" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A685" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29653,7 +29655,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="686" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="686" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A686" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29675,7 +29677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="687" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="687" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A687" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29712,7 +29714,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="688" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="688" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A688" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29749,7 +29751,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="689" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="689" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A689" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29786,7 +29788,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="690" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="690" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A690" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29823,7 +29825,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="691" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="691" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A691" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29860,7 +29862,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="692" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="692" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A692" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29897,7 +29899,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="693" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="693" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A693" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29934,7 +29936,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="694" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="694" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A694" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -29971,7 +29973,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="695" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="695" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A695" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30008,7 +30010,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="696" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="696" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A696" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30030,7 +30032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="697" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="697" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A697" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30067,7 +30069,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="698" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="698" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A698" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30104,7 +30106,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="699" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="699" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A699" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30141,7 +30143,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="700" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="700" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A700" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30178,7 +30180,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="701" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="701" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A701" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30215,7 +30217,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="702" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="702" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A702" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30252,7 +30254,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="703" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="703" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A703" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30274,7 +30276,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="704" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="704" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A704" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30311,7 +30313,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="705" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="705" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A705" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30348,7 +30350,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="706" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="706" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A706" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30385,7 +30387,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="707" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="707" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A707" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30422,7 +30424,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="708" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="708" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A708" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30444,7 +30446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="709" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="709" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A709" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30481,7 +30483,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="710" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="710" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A710" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30518,7 +30520,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="711" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="711" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A711" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30555,7 +30557,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="712" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="712" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A712" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30592,7 +30594,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="713" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="713" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A713" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30614,7 +30616,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="714" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="714" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A714" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30651,7 +30653,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="715" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="715" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A715" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30688,7 +30690,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="716" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="716" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A716" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30725,7 +30727,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="717" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="717" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A717" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30762,7 +30764,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="718" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="718" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A718" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30784,7 +30786,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="719" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="719" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A719" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30821,7 +30823,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="720" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="720" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A720" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30858,7 +30860,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="721" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="721" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A721" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30895,7 +30897,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="722" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="722" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A722" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30932,7 +30934,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="723" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="723" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A723" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30954,7 +30956,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="724" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="724" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A724" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -30991,7 +30993,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="725" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="725" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A725" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31028,7 +31030,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="726" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="726" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A726" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31065,7 +31067,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="727" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="727" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A727" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31102,7 +31104,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="728" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="728" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A728" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31124,7 +31126,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="729" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="729" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A729" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31161,7 +31163,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="730" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="730" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A730" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31198,7 +31200,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="731" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="731" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A731" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31235,7 +31237,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="732" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="732" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A732" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31272,7 +31274,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="733" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="733" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A733" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31309,7 +31311,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="734" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="734" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A734" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31346,7 +31348,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="735" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="735" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A735" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31368,7 +31370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="736" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="736" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A736" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31405,7 +31407,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="737" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="737" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A737" s="2">
         <f t="shared" si="78"/>
         <v>0</v>
@@ -31442,7 +31444,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="738" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="738" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A738" s="2">
         <f t="shared" ref="A738:A801" si="83">D738</f>
         <v>0</v>
@@ -31479,7 +31481,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="739" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="739" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A739" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31516,7 +31518,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="740" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="740" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A740" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31553,7 +31555,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="741" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="741" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A741" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31575,7 +31577,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="742" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="742" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A742" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31612,7 +31614,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="743" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="743" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A743" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31649,7 +31651,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="744" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="744" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A744" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31686,7 +31688,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="745" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="745" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A745" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31708,7 +31710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="746" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="746" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A746" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31745,7 +31747,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="747" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="747" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A747" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31782,7 +31784,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="748" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="748" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A748" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31819,7 +31821,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="749" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="749" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A749" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31856,7 +31858,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="750" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="750" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A750" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31893,7 +31895,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="751" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="751" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A751" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31930,7 +31932,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="752" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="752" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A752" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31967,7 +31969,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="753" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="753" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A753" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -31989,7 +31991,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="754" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="754" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A754" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32026,7 +32028,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="755" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="755" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A755" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32063,7 +32065,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="756" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="756" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A756" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32100,7 +32102,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="757" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="757" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A757" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32137,7 +32139,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="758" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="758" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A758" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32174,7 +32176,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="759" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="759" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A759" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32196,7 +32198,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="760" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="760" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A760" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32233,7 +32235,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="761" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="761" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A761" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32270,7 +32272,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="762" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="762" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A762" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32307,7 +32309,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="763" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="763" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A763" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32344,7 +32346,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="764" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="764" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A764" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32366,7 +32368,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="765" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="765" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A765" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32403,7 +32405,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="766" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="766" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A766" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32440,7 +32442,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="767" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="767" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A767" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32477,7 +32479,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="768" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="768" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A768" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32514,7 +32516,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="769" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="769" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A769" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32536,7 +32538,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="770" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="770" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A770" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32573,7 +32575,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="771" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="771" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A771" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32610,7 +32612,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="772" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="772" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A772" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32647,7 +32649,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="773" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="773" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A773" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32684,7 +32686,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="774" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="774" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A774" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32721,7 +32723,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="775" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="775" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A775" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32758,7 +32760,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="776" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="776" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A776" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32795,7 +32797,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="777" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="777" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A777" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32832,7 +32834,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="778" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="778" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A778" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32854,7 +32856,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="779" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="779" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A779" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32891,7 +32893,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="780" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="780" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A780" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32928,7 +32930,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="781" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="781" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A781" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -32965,7 +32967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="782" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="782" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A782" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33002,7 +33004,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="783" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="783" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A783" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33039,7 +33041,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="784" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="784" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A784" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33076,7 +33078,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="785" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="785" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A785" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33113,7 +33115,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="786" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="786" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A786" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33135,7 +33137,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="787" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="787" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A787" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33172,7 +33174,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="788" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="788" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A788" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33209,7 +33211,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="789" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="789" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A789" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33246,7 +33248,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="790" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="790" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A790" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33283,7 +33285,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="791" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="791" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A791" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33305,7 +33307,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="792" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="792" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A792" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33342,7 +33344,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="793" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="793" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A793" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33379,7 +33381,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="794" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="794" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A794" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33416,7 +33418,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="795" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="795" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A795" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33453,7 +33455,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="796" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="796" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A796" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33490,7 +33492,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="797" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="797" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A797" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33527,7 +33529,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="798" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="798" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A798" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33549,7 +33551,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="799" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="799" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A799" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33586,7 +33588,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="800" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="800" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A800" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33623,7 +33625,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="801" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="801" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A801" s="2">
         <f t="shared" si="83"/>
         <v>0</v>
@@ -33660,7 +33662,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="802" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="802" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A802" s="2">
         <f t="shared" ref="A802:A839" si="91">D802</f>
         <v>0</v>
@@ -33697,7 +33699,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="803" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="803" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A803" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33734,7 +33736,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="804" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="804" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A804" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33771,7 +33773,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="805" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="805" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A805" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33808,7 +33810,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="806" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="806" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A806" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33845,7 +33847,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="807" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="807" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A807" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33882,7 +33884,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="808" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="808" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A808" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33919,7 +33921,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="809" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="809" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A809" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33941,7 +33943,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="810" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="810" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A810" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -33978,7 +33980,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="811" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="811" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A811" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34015,7 +34017,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="812" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="812" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A812" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34052,7 +34054,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="813" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="813" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A813" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34089,7 +34091,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="814" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="814" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A814" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34126,7 +34128,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="815" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="815" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A815" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34163,7 +34165,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="816" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="816" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A816" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34200,7 +34202,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="817" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="817" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A817" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34237,7 +34239,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="818" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="818" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A818" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34259,7 +34261,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="819" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="819" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A819" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34296,7 +34298,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="820" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="820" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A820" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34333,7 +34335,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="821" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="821" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A821" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34370,7 +34372,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="822" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="822" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A822" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34392,7 +34394,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="823" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="823" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A823" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34429,7 +34431,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="824" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="824" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A824" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34466,7 +34468,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="825" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="825" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A825" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34503,7 +34505,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="826" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="826" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A826" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34540,7 +34542,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="827" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="827" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A827" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34577,7 +34579,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="828" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="828" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A828" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34614,7 +34616,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="829" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="829" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A829" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34651,7 +34653,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="830" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="830" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A830" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34673,7 +34675,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="831" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="831" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A831" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34710,7 +34712,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="832" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="832" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A832" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34747,7 +34749,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="833" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="833" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A833" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34784,7 +34786,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="834" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="834" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A834" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34821,7 +34823,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="835" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="835" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A835" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34858,7 +34860,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="836" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="836" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A836" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34895,7 +34897,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="837" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="837" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A837" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34905,7 +34907,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="838" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="838" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A838" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
@@ -34942,7 +34944,7 @@
         <v>117</v>
       </c>
     </row>
-    <row r="839" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="839" spans="1:13" x14ac:dyDescent="0.4">
       <c r="A839" s="2">
         <f t="shared" si="91"/>
         <v>0</v>
